--- a/GMLA loading analysis/(Output) Data.xlsx
+++ b/GMLA loading analysis/(Output) Data.xlsx
@@ -8,29 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangcooper\Documents\Python\Python\GMLA loading analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D57C53-1E89-49C9-B1B0-6E7B3F868D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D48BC3-1774-4CD3-9469-60EA34DF8C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16140" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16140" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="overview" sheetId="1" r:id="rId1"/>
     <sheet name="overview_weighted" sheetId="2" r:id="rId2"/>
     <sheet name="detail" sheetId="3" r:id="rId3"/>
-    <sheet name="ww_asia_diff_DPQE" sheetId="4" r:id="rId4"/>
-    <sheet name="projects_wo_DPQE" sheetId="5" r:id="rId5"/>
-    <sheet name="multi_dpqe" sheetId="6" r:id="rId6"/>
-    <sheet name="MPdate_from_now_count" sheetId="7" r:id="rId7"/>
-    <sheet name="MPdate_from_now" sheetId="8" r:id="rId8"/>
-    <sheet name="No_MPdate_count" sheetId="9" r:id="rId9"/>
-    <sheet name="No_MPdate" sheetId="10" r:id="rId10"/>
-    <sheet name="Aviation_PRweb" sheetId="11" r:id="rId11"/>
+    <sheet name="pmsystem_project_wo_any_date" sheetId="4" r:id="rId4"/>
+    <sheet name="ww_asia_diff_DPQE" sheetId="5" r:id="rId5"/>
+    <sheet name="projects_wo_DPQE" sheetId="6" r:id="rId6"/>
+    <sheet name="multi_dpqe" sheetId="7" r:id="rId7"/>
+    <sheet name="MPdate_from_now_count" sheetId="8" r:id="rId8"/>
+    <sheet name="MPdate_from_now" sheetId="9" r:id="rId9"/>
+    <sheet name="No_MPdate_count" sheetId="10" r:id="rId10"/>
+    <sheet name="No_MPdate" sheetId="11" r:id="rId11"/>
+    <sheet name="Aviation_PRweb" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="239">
   <si>
     <t>DPQE</t>
   </si>
@@ -359,37 +360,118 @@
     <t>Panoptix PS70 - (SSMB)</t>
   </si>
   <si>
+    <t>Develop  Product QE (DPQE)</t>
+  </si>
+  <si>
+    <t>Working Prototype Built and Tested</t>
+  </si>
+  <si>
+    <t>Final Factory Prototypes Built</t>
+  </si>
+  <si>
+    <t>MP Date</t>
+  </si>
+  <si>
+    <t>PR Date</t>
+  </si>
+  <si>
+    <t>Global/Asia</t>
+  </si>
+  <si>
+    <t>PDP/Form107</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>SaMD PPG Atrial Fibrillation Detection</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>PDP</t>
+  </si>
+  <si>
+    <t>Concepts</t>
+  </si>
+  <si>
+    <t>SaMD Sleep Apnea Risk Assessment</t>
+  </si>
+  <si>
+    <t>Panoptix PS22-IF Transducer and Ice Fishing Bundles</t>
+  </si>
+  <si>
+    <t>Approach G20</t>
+  </si>
+  <si>
+    <t>Companion Dog Tracking Collar</t>
+  </si>
+  <si>
+    <t>Connect IQ 3.x</t>
+  </si>
+  <si>
+    <t>Edge 540 840 ASIA</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>L20 Laser Range Finder</t>
+  </si>
+  <si>
+    <t>Rally 110/210 Family</t>
+  </si>
+  <si>
+    <t>Xero G2i SatCom Scouting Camera</t>
+  </si>
+  <si>
+    <t>inReach Certus IoT</t>
+  </si>
+  <si>
+    <t>GPSMAP 68</t>
+  </si>
+  <si>
+    <t>Thin Watch</t>
+  </si>
+  <si>
+    <t>Approach S70, Asia</t>
+  </si>
+  <si>
+    <t>Approach S70s, Asia</t>
+  </si>
+  <si>
+    <t>Marq Hybrid</t>
+  </si>
+  <si>
+    <t>Next Gen Fenix Dev Platform</t>
+  </si>
+  <si>
+    <t>Flush Mount Stainless Steel Camera</t>
+  </si>
+  <si>
+    <t>Lily Athlete</t>
+  </si>
+  <si>
+    <t>Product - 1.3\" GTR/GNC</t>
+  </si>
+  <si>
+    <t>Product - GDU147XW</t>
+  </si>
+  <si>
+    <t>Product - GDU77XW</t>
+  </si>
+  <si>
+    <t>inReach Messenger 2</t>
+  </si>
+  <si>
     <t>Project ID</t>
   </si>
   <si>
-    <t>Develop  Product QE (DPQE)</t>
-  </si>
-  <si>
-    <t>Global/Asia</t>
-  </si>
-  <si>
-    <t>MP Date</t>
-  </si>
-  <si>
-    <t>Working Prototype Built and Tested</t>
-  </si>
-  <si>
-    <t>Final Factory Prototypes Built</t>
-  </si>
-  <si>
-    <t>PR Date</t>
-  </si>
-  <si>
-    <t>PDP/Form107</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>GPSMAP 9000</t>
-  </si>
-  <si>
-    <t>Global</t>
   </si>
   <si>
     <t>Hsu, Jason(PQE);
@@ -417,12 +499,6 @@
     <t>Outdoor</t>
   </si>
   <si>
-    <t>PDP</t>
-  </si>
-  <si>
-    <t>Development</t>
-  </si>
-  <si>
     <t>Tread 8" OEM - Honda</t>
   </si>
   <si>
@@ -477,9 +553,6 @@
     <t>2024 Value Dash Cams</t>
   </si>
   <si>
-    <t>Concepts</t>
-  </si>
-  <si>
     <t>Aviation Headset -</t>
   </si>
   <si>
@@ -507,18 +580,6 @@
     <t>HRM6-Basic</t>
   </si>
   <si>
-    <t>Lily Athlete</t>
-  </si>
-  <si>
-    <t>Rally 110/210 Family</t>
-  </si>
-  <si>
-    <t>SaMD PPG Atrial Fibrillation Detection</t>
-  </si>
-  <si>
-    <t>SaMD Sleep Apnea Risk Assessment</t>
-  </si>
-  <si>
     <t>Tacx Climbing Accessory</t>
   </si>
   <si>
@@ -528,9 +589,6 @@
     <t>Varia Headlight Camera</t>
   </si>
   <si>
-    <t>Flush Mount Stainless Steel Camera</t>
-  </si>
-  <si>
     <t>Fusion - 6.5in &amp; 8.8in Signature Series 4 Tower Speakers</t>
   </si>
   <si>
@@ -555,9 +613,6 @@
     <t>MOB/ECOS System</t>
   </si>
   <si>
-    <t>Panoptix PS22-IF Transducer and Ice Fishing Bundles</t>
-  </si>
-  <si>
     <t>Surface Mount Camera</t>
   </si>
   <si>
@@ -630,30 +685,15 @@
     <t>MARQ Carbon (Gen 2)</t>
   </si>
   <si>
-    <t>Next Gen Fenix Dev Platform</t>
-  </si>
-  <si>
-    <t>Xero G2i SatCom Scouting Camera</t>
-  </si>
-  <si>
     <t>Alpha 5</t>
   </si>
   <si>
-    <t>Approach G20</t>
-  </si>
-  <si>
     <t>Approach Z84</t>
   </si>
   <si>
     <t>Automated Device Testing Farm</t>
   </si>
   <si>
-    <t>Companion Dog Tracking Collar</t>
-  </si>
-  <si>
-    <t>Connect IQ 3.x</t>
-  </si>
-  <si>
     <t>Descent Subwave Solar</t>
   </si>
   <si>
@@ -672,15 +712,6 @@
     <t>fenix 8 Series</t>
   </si>
   <si>
-    <t>GPSMAP 68</t>
-  </si>
-  <si>
-    <t>inReach Certus IoT</t>
-  </si>
-  <si>
-    <t>inReach Messenger 2</t>
-  </si>
-  <si>
     <t>Instinct 3 Series</t>
   </si>
   <si>
@@ -690,18 +721,12 @@
     <t>K60i Compact Laser Navigation Binocular 8/10x32mm</t>
   </si>
   <si>
-    <t>L20 Laser Range Finder</t>
-  </si>
-  <si>
     <t>M60i Laser Navigation Binoculars 15/18x56mm</t>
   </si>
   <si>
     <t>Marq (Gen 3)</t>
   </si>
   <si>
-    <t>Marq Hybrid</t>
-  </si>
-  <si>
     <t>Xero A2i Bow Sight</t>
   </si>
   <si>
@@ -720,19 +745,10 @@
     <t>2023-07-01</t>
   </si>
   <si>
-    <t>Product - 1.3\" GTR/GNC</t>
-  </si>
-  <si>
-    <t>Product - GDU147XW</t>
-  </si>
-  <si>
     <t>2024-01-03</t>
   </si>
   <si>
     <t>Product - Flight Stream Redesign</t>
-  </si>
-  <si>
-    <t>Product - GDU77XW</t>
   </si>
 </sst>
 </file>
@@ -1889,6 +1905,72 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1903,10 +1985,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>36</v>
@@ -1915,18 +1997,18 @@
         <v>112</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="B2">
         <v>16467</v>
@@ -1935,1553 +2017,1553 @@
         <v>89</v>
       </c>
       <c r="E2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" t="s">
         <v>119</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>128</v>
-      </c>
-      <c r="G2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="B3">
         <v>16544</v>
       </c>
       <c r="C3" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="E3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" t="s">
         <v>119</v>
       </c>
-      <c r="F3" t="s">
-        <v>128</v>
-      </c>
       <c r="G3" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="B4">
         <v>16319</v>
       </c>
       <c r="C4" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="E4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" t="s">
         <v>119</v>
       </c>
-      <c r="F4" t="s">
-        <v>128</v>
-      </c>
       <c r="G4" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="B5">
         <v>16718</v>
       </c>
       <c r="C5" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="E5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" t="s">
         <v>119</v>
       </c>
-      <c r="F5" t="s">
-        <v>128</v>
-      </c>
       <c r="G5" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="B6">
         <v>16717</v>
       </c>
       <c r="C6" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="E6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" t="s">
         <v>119</v>
       </c>
-      <c r="F6" t="s">
-        <v>128</v>
-      </c>
       <c r="G6" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="B7">
         <v>16602</v>
       </c>
       <c r="C7" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="E7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7" t="s">
         <v>119</v>
       </c>
-      <c r="F7" t="s">
-        <v>128</v>
-      </c>
       <c r="G7" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="B8">
         <v>16539</v>
       </c>
       <c r="C8" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="E8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" t="s">
         <v>119</v>
       </c>
-      <c r="F8" t="s">
-        <v>128</v>
-      </c>
       <c r="G8" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="B9">
         <v>16197</v>
       </c>
       <c r="C9" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="E9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" t="s">
         <v>119</v>
       </c>
-      <c r="F9" t="s">
-        <v>128</v>
-      </c>
       <c r="G9" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="B10">
         <v>16061</v>
       </c>
       <c r="C10" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="E10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F10" t="s">
         <v>119</v>
       </c>
-      <c r="F10" t="s">
-        <v>128</v>
-      </c>
       <c r="G10" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="B11">
         <v>16005</v>
       </c>
       <c r="C11" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="E11" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11" t="s">
         <v>119</v>
       </c>
-      <c r="F11" t="s">
-        <v>128</v>
-      </c>
       <c r="G11" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="B12">
         <v>16555</v>
       </c>
       <c r="C12" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="E12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F12" t="s">
         <v>119</v>
       </c>
-      <c r="F12" t="s">
-        <v>128</v>
-      </c>
       <c r="G12" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="B13">
         <v>16248</v>
       </c>
       <c r="C13" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="E13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F13" t="s">
         <v>119</v>
       </c>
-      <c r="F13" t="s">
-        <v>128</v>
-      </c>
       <c r="G13" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="B14">
         <v>16349</v>
       </c>
       <c r="C14" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="E14" t="s">
+        <v>118</v>
+      </c>
+      <c r="F14" t="s">
         <v>119</v>
       </c>
-      <c r="F14" t="s">
-        <v>128</v>
-      </c>
       <c r="G14" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="B15">
         <v>10693</v>
       </c>
       <c r="C15" t="s">
-        <v>160</v>
+        <v>117</v>
       </c>
       <c r="E15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F15" t="s">
         <v>119</v>
       </c>
-      <c r="F15" t="s">
-        <v>128</v>
-      </c>
       <c r="G15" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="B16">
         <v>10692</v>
       </c>
       <c r="C16" t="s">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="E16" t="s">
+        <v>118</v>
+      </c>
+      <c r="F16" t="s">
         <v>119</v>
       </c>
-      <c r="F16" t="s">
-        <v>128</v>
-      </c>
       <c r="G16" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="B17">
         <v>16345</v>
       </c>
       <c r="C17" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E17" t="s">
+        <v>118</v>
+      </c>
+      <c r="F17" t="s">
         <v>119</v>
       </c>
-      <c r="F17" t="s">
-        <v>128</v>
-      </c>
       <c r="G17" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="B18">
         <v>16250</v>
       </c>
       <c r="C18" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="E18" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" t="s">
         <v>119</v>
       </c>
-      <c r="F18" t="s">
-        <v>128</v>
-      </c>
       <c r="G18" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="B19">
         <v>16183</v>
       </c>
       <c r="C19" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="E19" t="s">
+        <v>118</v>
+      </c>
+      <c r="F19" t="s">
         <v>119</v>
       </c>
-      <c r="F19" t="s">
-        <v>128</v>
-      </c>
       <c r="G19" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="B20">
         <v>16300</v>
       </c>
       <c r="C20" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="E20" t="s">
+        <v>118</v>
+      </c>
+      <c r="F20" t="s">
         <v>119</v>
       </c>
-      <c r="F20" t="s">
-        <v>128</v>
-      </c>
       <c r="G20" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="B21">
         <v>16707</v>
       </c>
       <c r="C21" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="E21" t="s">
+        <v>118</v>
+      </c>
+      <c r="F21" t="s">
         <v>119</v>
       </c>
-      <c r="F21" t="s">
-        <v>128</v>
-      </c>
       <c r="G21" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="B22">
         <v>16411</v>
       </c>
       <c r="C22" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="E22" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" t="s">
         <v>119</v>
       </c>
-      <c r="F22" t="s">
-        <v>128</v>
-      </c>
       <c r="G22" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="B23">
         <v>16405</v>
       </c>
       <c r="C23" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="E23" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" t="s">
         <v>119</v>
       </c>
-      <c r="F23" t="s">
-        <v>128</v>
-      </c>
       <c r="G23" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="B24">
         <v>16588</v>
       </c>
       <c r="C24" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="E24" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" t="s">
         <v>119</v>
       </c>
-      <c r="F24" t="s">
-        <v>128</v>
-      </c>
       <c r="G24" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="B25">
         <v>16706</v>
       </c>
       <c r="C25" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="E25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F25" t="s">
         <v>119</v>
       </c>
-      <c r="F25" t="s">
-        <v>128</v>
-      </c>
       <c r="G25" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="B26">
         <v>16094</v>
       </c>
       <c r="C26" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="E26" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26" t="s">
         <v>119</v>
       </c>
-      <c r="F26" t="s">
-        <v>128</v>
-      </c>
       <c r="G26" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="B27">
         <v>16554</v>
       </c>
       <c r="C27" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="E27" t="s">
+        <v>118</v>
+      </c>
+      <c r="F27" t="s">
         <v>119</v>
       </c>
-      <c r="F27" t="s">
-        <v>128</v>
-      </c>
       <c r="G27" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="B28">
         <v>16198</v>
       </c>
       <c r="C28" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="E28" t="s">
+        <v>118</v>
+      </c>
+      <c r="F28" t="s">
         <v>119</v>
       </c>
-      <c r="F28" t="s">
-        <v>128</v>
-      </c>
       <c r="G28" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="B29">
         <v>16501</v>
       </c>
       <c r="C29" t="s">
-        <v>174</v>
+        <v>122</v>
       </c>
       <c r="E29" t="s">
+        <v>118</v>
+      </c>
+      <c r="F29" t="s">
         <v>119</v>
       </c>
-      <c r="F29" t="s">
-        <v>128</v>
-      </c>
       <c r="G29" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="B30">
         <v>16365</v>
       </c>
       <c r="C30" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="E30" t="s">
+        <v>118</v>
+      </c>
+      <c r="F30" t="s">
         <v>119</v>
       </c>
-      <c r="F30" t="s">
-        <v>128</v>
-      </c>
       <c r="G30" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="B31">
         <v>13479</v>
       </c>
       <c r="C31" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="E31" t="s">
+        <v>118</v>
+      </c>
+      <c r="F31" t="s">
         <v>119</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>128</v>
-      </c>
-      <c r="G31" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="B32">
         <v>16500</v>
       </c>
       <c r="C32" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="E32" t="s">
+        <v>118</v>
+      </c>
+      <c r="F32" t="s">
         <v>119</v>
       </c>
-      <c r="F32" t="s">
-        <v>128</v>
-      </c>
       <c r="G32" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="B33">
         <v>14879</v>
       </c>
       <c r="C33" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="E33" t="s">
+        <v>118</v>
+      </c>
+      <c r="F33" t="s">
         <v>119</v>
       </c>
-      <c r="F33" t="s">
-        <v>128</v>
-      </c>
       <c r="G33" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="B34">
         <v>15841</v>
       </c>
       <c r="C34" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="E34" t="s">
+        <v>118</v>
+      </c>
+      <c r="F34" t="s">
         <v>119</v>
       </c>
-      <c r="F34" t="s">
-        <v>128</v>
-      </c>
       <c r="G34" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="B35">
         <v>16275</v>
       </c>
       <c r="C35" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="E35" t="s">
+        <v>118</v>
+      </c>
+      <c r="F35" t="s">
         <v>119</v>
       </c>
-      <c r="F35" t="s">
-        <v>128</v>
-      </c>
       <c r="G35" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="B36">
         <v>16412</v>
       </c>
       <c r="C36" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="E36" t="s">
+        <v>118</v>
+      </c>
+      <c r="F36" t="s">
         <v>119</v>
       </c>
-      <c r="F36" t="s">
-        <v>128</v>
-      </c>
       <c r="G36" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="B37">
         <v>16675</v>
       </c>
       <c r="C37" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="E37" t="s">
+        <v>118</v>
+      </c>
+      <c r="F37" t="s">
         <v>119</v>
       </c>
-      <c r="F37" t="s">
-        <v>128</v>
-      </c>
       <c r="G37" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="B38">
         <v>14374</v>
       </c>
       <c r="C38" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="E38" t="s">
+        <v>118</v>
+      </c>
+      <c r="F38" t="s">
         <v>119</v>
       </c>
-      <c r="F38" t="s">
-        <v>128</v>
-      </c>
       <c r="G38" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="B39">
         <v>12264</v>
       </c>
       <c r="C39" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="E39" t="s">
+        <v>118</v>
+      </c>
+      <c r="F39" t="s">
         <v>119</v>
       </c>
-      <c r="F39" t="s">
-        <v>128</v>
-      </c>
       <c r="G39" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="B40">
         <v>13149</v>
       </c>
       <c r="C40" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="E40" t="s">
+        <v>118</v>
+      </c>
+      <c r="F40" t="s">
         <v>119</v>
       </c>
-      <c r="F40" t="s">
-        <v>128</v>
-      </c>
       <c r="G40" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="B41">
         <v>16077</v>
       </c>
       <c r="C41" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="E41" t="s">
+        <v>118</v>
+      </c>
+      <c r="F41" t="s">
         <v>119</v>
       </c>
-      <c r="F41" t="s">
-        <v>128</v>
-      </c>
       <c r="G41" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="B42">
         <v>11922</v>
       </c>
       <c r="C42" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="E42" t="s">
+        <v>118</v>
+      </c>
+      <c r="F42" t="s">
         <v>119</v>
       </c>
-      <c r="F42" t="s">
-        <v>128</v>
-      </c>
       <c r="G42" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="B43">
         <v>16659</v>
       </c>
       <c r="C43" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="E43" t="s">
+        <v>118</v>
+      </c>
+      <c r="F43" t="s">
         <v>119</v>
       </c>
-      <c r="F43" t="s">
-        <v>128</v>
-      </c>
       <c r="G43" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="B44">
         <v>12549</v>
       </c>
       <c r="C44" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="E44" t="s">
+        <v>118</v>
+      </c>
+      <c r="F44" t="s">
         <v>119</v>
       </c>
-      <c r="F44" t="s">
-        <v>128</v>
-      </c>
       <c r="G44" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="B45">
         <v>16392</v>
       </c>
       <c r="C45" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="E45" t="s">
+        <v>118</v>
+      </c>
+      <c r="F45" t="s">
         <v>119</v>
       </c>
-      <c r="F45" t="s">
-        <v>128</v>
-      </c>
       <c r="G45" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="B46">
         <v>15634</v>
       </c>
       <c r="C46" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="E46" t="s">
+        <v>118</v>
+      </c>
+      <c r="F46" t="s">
         <v>119</v>
       </c>
-      <c r="F46" t="s">
-        <v>128</v>
-      </c>
       <c r="G46" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="B47">
         <v>11979</v>
       </c>
       <c r="C47" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="E47" t="s">
+        <v>118</v>
+      </c>
+      <c r="F47" t="s">
         <v>119</v>
       </c>
-      <c r="F47" t="s">
-        <v>128</v>
-      </c>
       <c r="G47" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="B48">
         <v>16373</v>
       </c>
       <c r="C48" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="E48" t="s">
+        <v>118</v>
+      </c>
+      <c r="F48" t="s">
         <v>119</v>
       </c>
-      <c r="F48" t="s">
-        <v>128</v>
-      </c>
       <c r="G48" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="B49">
         <v>12141</v>
       </c>
       <c r="C49" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="E49" t="s">
+        <v>118</v>
+      </c>
+      <c r="F49" t="s">
         <v>119</v>
       </c>
-      <c r="F49" t="s">
-        <v>128</v>
-      </c>
       <c r="G49" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="B50">
         <v>15285</v>
       </c>
       <c r="C50" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="E50" t="s">
+        <v>118</v>
+      </c>
+      <c r="F50" t="s">
         <v>119</v>
       </c>
-      <c r="F50" t="s">
-        <v>128</v>
-      </c>
       <c r="G50" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="B51">
         <v>15284</v>
       </c>
       <c r="C51" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="E51" t="s">
+        <v>118</v>
+      </c>
+      <c r="F51" t="s">
         <v>119</v>
       </c>
-      <c r="F51" t="s">
-        <v>128</v>
-      </c>
       <c r="G51" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="B52">
         <v>16152</v>
       </c>
       <c r="C52" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="E52" t="s">
+        <v>118</v>
+      </c>
+      <c r="F52" t="s">
         <v>119</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>128</v>
-      </c>
-      <c r="G52" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="B53">
         <v>11252</v>
       </c>
       <c r="C53" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="E53" t="s">
+        <v>118</v>
+      </c>
+      <c r="F53" t="s">
         <v>119</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>128</v>
-      </c>
-      <c r="G53" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="B54">
         <v>14704</v>
       </c>
       <c r="C54" t="s">
-        <v>199</v>
+        <v>138</v>
       </c>
       <c r="E54" t="s">
+        <v>118</v>
+      </c>
+      <c r="F54" t="s">
         <v>119</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>128</v>
-      </c>
-      <c r="G54" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="B55">
         <v>7011</v>
       </c>
       <c r="C55" t="s">
-        <v>200</v>
+        <v>131</v>
       </c>
       <c r="E55" t="s">
+        <v>118</v>
+      </c>
+      <c r="F55" t="s">
         <v>119</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>128</v>
-      </c>
-      <c r="G55" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="B56">
         <v>16592</v>
       </c>
       <c r="C56" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="E56" t="s">
+        <v>118</v>
+      </c>
+      <c r="F56" t="s">
         <v>119</v>
       </c>
-      <c r="F56" t="s">
-        <v>128</v>
-      </c>
       <c r="G56" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="B57">
         <v>15619</v>
       </c>
       <c r="C57" t="s">
-        <v>202</v>
+        <v>123</v>
       </c>
       <c r="E57" t="s">
+        <v>118</v>
+      </c>
+      <c r="F57" t="s">
         <v>119</v>
       </c>
-      <c r="F57" t="s">
-        <v>128</v>
-      </c>
       <c r="G57" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="B58">
         <v>16673</v>
       </c>
       <c r="C58" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="E58" t="s">
+        <v>118</v>
+      </c>
+      <c r="F58" t="s">
         <v>119</v>
       </c>
-      <c r="F58" t="s">
-        <v>128</v>
-      </c>
       <c r="G58" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="B59">
         <v>16653</v>
       </c>
       <c r="C59" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="E59" t="s">
+        <v>118</v>
+      </c>
+      <c r="F59" t="s">
         <v>119</v>
       </c>
-      <c r="F59" t="s">
-        <v>128</v>
-      </c>
       <c r="G59" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="B60">
         <v>13034</v>
       </c>
       <c r="C60" t="s">
-        <v>205</v>
+        <v>124</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
       </c>
-      <c r="F60" t="s">
-        <v>128</v>
-      </c>
       <c r="G60" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="B61">
         <v>10016</v>
       </c>
       <c r="C61" t="s">
-        <v>206</v>
+        <v>125</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
       </c>
-      <c r="F61" t="s">
-        <v>128</v>
-      </c>
       <c r="G61" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="B62">
         <v>15987</v>
       </c>
       <c r="C62" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="E62" t="s">
+        <v>118</v>
+      </c>
+      <c r="F62" t="s">
         <v>119</v>
       </c>
-      <c r="F62" t="s">
-        <v>128</v>
-      </c>
       <c r="G62" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="B63">
         <v>16230</v>
       </c>
       <c r="C63" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="E63" t="s">
+        <v>118</v>
+      </c>
+      <c r="F63" t="s">
         <v>119</v>
       </c>
-      <c r="F63" t="s">
-        <v>128</v>
-      </c>
       <c r="G63" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="B64">
         <v>16536</v>
       </c>
       <c r="C64" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="E64" t="s">
+        <v>118</v>
+      </c>
+      <c r="F64" t="s">
         <v>119</v>
       </c>
-      <c r="F64" t="s">
-        <v>128</v>
-      </c>
       <c r="G64" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="B65">
         <v>16244</v>
       </c>
       <c r="C65" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="E65" t="s">
+        <v>118</v>
+      </c>
+      <c r="F65" t="s">
         <v>119</v>
       </c>
-      <c r="F65" t="s">
-        <v>128</v>
-      </c>
       <c r="G65" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="B66">
         <v>16215</v>
       </c>
       <c r="C66" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="E66" t="s">
+        <v>118</v>
+      </c>
+      <c r="F66" t="s">
         <v>119</v>
       </c>
-      <c r="F66" t="s">
-        <v>128</v>
-      </c>
       <c r="G66" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="B67">
         <v>16514</v>
       </c>
       <c r="C67" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="E67" t="s">
+        <v>118</v>
+      </c>
+      <c r="F67" t="s">
         <v>119</v>
       </c>
-      <c r="F67" t="s">
-        <v>128</v>
-      </c>
       <c r="G67" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="B68">
         <v>16137</v>
       </c>
       <c r="C68" t="s">
-        <v>213</v>
+        <v>133</v>
       </c>
       <c r="E68" t="s">
+        <v>118</v>
+      </c>
+      <c r="F68" t="s">
         <v>119</v>
       </c>
-      <c r="F68" t="s">
-        <v>128</v>
-      </c>
       <c r="G68" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="B69">
         <v>14739</v>
       </c>
       <c r="C69" t="s">
-        <v>214</v>
+        <v>132</v>
       </c>
       <c r="E69" t="s">
+        <v>118</v>
+      </c>
+      <c r="F69" t="s">
         <v>119</v>
       </c>
-      <c r="F69" t="s">
-        <v>128</v>
-      </c>
       <c r="G69" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="B70">
         <v>16216</v>
       </c>
       <c r="C70" t="s">
-        <v>215</v>
+        <v>144</v>
       </c>
       <c r="E70" t="s">
+        <v>118</v>
+      </c>
+      <c r="F70" t="s">
         <v>119</v>
       </c>
-      <c r="F70" t="s">
-        <v>128</v>
-      </c>
       <c r="G70" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="B71">
         <v>16298</v>
       </c>
       <c r="C71" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="E71" t="s">
+        <v>118</v>
+      </c>
+      <c r="F71" t="s">
         <v>119</v>
       </c>
-      <c r="F71" t="s">
-        <v>128</v>
-      </c>
       <c r="G71" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="B72">
         <v>16134</v>
       </c>
       <c r="C72" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="E72" t="s">
+        <v>118</v>
+      </c>
+      <c r="F72" t="s">
         <v>119</v>
       </c>
-      <c r="F72" t="s">
-        <v>128</v>
-      </c>
       <c r="G72" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="B73">
         <v>16044</v>
       </c>
       <c r="C73" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="E73" t="s">
+        <v>118</v>
+      </c>
+      <c r="F73" t="s">
         <v>119</v>
       </c>
-      <c r="F73" t="s">
-        <v>128</v>
-      </c>
       <c r="G73" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="B74">
         <v>14604</v>
       </c>
       <c r="C74" t="s">
-        <v>219</v>
+        <v>129</v>
       </c>
       <c r="E74" t="s">
+        <v>118</v>
+      </c>
+      <c r="F74" t="s">
         <v>119</v>
       </c>
-      <c r="F74" t="s">
-        <v>128</v>
-      </c>
       <c r="G74" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="B75">
         <v>16037</v>
       </c>
       <c r="C75" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="E75" t="s">
+        <v>118</v>
+      </c>
+      <c r="F75" t="s">
         <v>119</v>
       </c>
-      <c r="F75" t="s">
-        <v>128</v>
-      </c>
       <c r="G75" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="B76">
         <v>16212</v>
       </c>
       <c r="C76" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="E76" t="s">
+        <v>118</v>
+      </c>
+      <c r="F76" t="s">
         <v>119</v>
       </c>
-      <c r="F76" t="s">
-        <v>128</v>
-      </c>
       <c r="G76" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="B77">
         <v>12279</v>
       </c>
       <c r="C77" t="s">
-        <v>222</v>
+        <v>137</v>
       </c>
       <c r="E77" t="s">
+        <v>118</v>
+      </c>
+      <c r="F77" t="s">
         <v>119</v>
       </c>
-      <c r="F77" t="s">
-        <v>128</v>
-      </c>
       <c r="G77" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="B78">
         <v>15988</v>
       </c>
       <c r="C78" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="E78" t="s">
+        <v>118</v>
+      </c>
+      <c r="F78" t="s">
         <v>119</v>
       </c>
-      <c r="F78" t="s">
-        <v>128</v>
-      </c>
       <c r="G78" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="B79">
         <v>15990</v>
       </c>
       <c r="C79" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="E79" t="s">
+        <v>118</v>
+      </c>
+      <c r="F79" t="s">
         <v>119</v>
       </c>
-      <c r="F79" t="s">
-        <v>128</v>
-      </c>
       <c r="G79" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3490,8 +3572,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3510,10 +3592,10 @@
         <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>112</v>
@@ -3524,16 +3606,16 @@
         <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="C2">
         <v>1050</v>
       </c>
       <c r="D2" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="E2" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -3541,16 +3623,16 @@
         <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>229</v>
+        <v>141</v>
       </c>
       <c r="C3">
         <v>984</v>
       </c>
       <c r="D3" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="E3" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -3558,16 +3640,16 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>230</v>
+        <v>142</v>
       </c>
       <c r="C4">
         <v>1049</v>
       </c>
       <c r="D4" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="E4" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -3575,13 +3657,13 @@
         <v>119</v>
       </c>
       <c r="B5" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C5">
         <v>977</v>
       </c>
       <c r="D5" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -3589,13 +3671,13 @@
         <v>120</v>
       </c>
       <c r="B6" t="s">
-        <v>233</v>
+        <v>143</v>
       </c>
       <c r="C6">
         <v>1048</v>
       </c>
       <c r="D6" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -4262,15 +4344,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AZ75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.5" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
@@ -15757,6 +15833,450 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="35.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56" customWidth="1"/>
+    <col min="3" max="3" width="39" customWidth="1"/>
+    <col min="4" max="4" width="35" customWidth="1"/>
+    <col min="5" max="6" width="12" customWidth="1"/>
+    <col min="7" max="9" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H5" t="s">
+        <v>119</v>
+      </c>
+      <c r="I5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G6" t="s">
+        <v>118</v>
+      </c>
+      <c r="H6" t="s">
+        <v>119</v>
+      </c>
+      <c r="I6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G8" t="s">
+        <v>127</v>
+      </c>
+      <c r="H8" t="s">
+        <v>119</v>
+      </c>
+      <c r="I8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" t="s">
+        <v>118</v>
+      </c>
+      <c r="H9" t="s">
+        <v>119</v>
+      </c>
+      <c r="I9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>130</v>
+      </c>
+      <c r="G10" t="s">
+        <v>118</v>
+      </c>
+      <c r="H10" t="s">
+        <v>119</v>
+      </c>
+      <c r="I10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G11" t="s">
+        <v>118</v>
+      </c>
+      <c r="H11" t="s">
+        <v>119</v>
+      </c>
+      <c r="I11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>132</v>
+      </c>
+      <c r="G12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H12" t="s">
+        <v>119</v>
+      </c>
+      <c r="I12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>133</v>
+      </c>
+      <c r="G13" t="s">
+        <v>118</v>
+      </c>
+      <c r="H13" t="s">
+        <v>119</v>
+      </c>
+      <c r="I13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>134</v>
+      </c>
+      <c r="G14" t="s">
+        <v>118</v>
+      </c>
+      <c r="H14" t="s">
+        <v>119</v>
+      </c>
+      <c r="I14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>135</v>
+      </c>
+      <c r="G15" t="s">
+        <v>127</v>
+      </c>
+      <c r="H15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" t="s">
+        <v>127</v>
+      </c>
+      <c r="H16" t="s">
+        <v>119</v>
+      </c>
+      <c r="I16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>137</v>
+      </c>
+      <c r="G17" t="s">
+        <v>118</v>
+      </c>
+      <c r="H17" t="s">
+        <v>119</v>
+      </c>
+      <c r="I17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>138</v>
+      </c>
+      <c r="G18" t="s">
+        <v>118</v>
+      </c>
+      <c r="H18" t="s">
+        <v>119</v>
+      </c>
+      <c r="I18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>139</v>
+      </c>
+      <c r="G19" t="s">
+        <v>118</v>
+      </c>
+      <c r="H19" t="s">
+        <v>119</v>
+      </c>
+      <c r="I19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>140</v>
+      </c>
+      <c r="G20" t="s">
+        <v>118</v>
+      </c>
+      <c r="H20" t="s">
+        <v>119</v>
+      </c>
+      <c r="I20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>141</v>
+      </c>
+      <c r="G21" t="s">
+        <v>118</v>
+      </c>
+      <c r="H21" t="s">
+        <v>119</v>
+      </c>
+      <c r="I21" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" t="s">
+        <v>142</v>
+      </c>
+      <c r="G22" t="s">
+        <v>118</v>
+      </c>
+      <c r="H22" t="s">
+        <v>119</v>
+      </c>
+      <c r="I22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" t="s">
+        <v>143</v>
+      </c>
+      <c r="G23" t="s">
+        <v>118</v>
+      </c>
+      <c r="H23" t="s">
+        <v>119</v>
+      </c>
+      <c r="I23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
+        <v>144</v>
+      </c>
+      <c r="G24" t="s">
+        <v>118</v>
+      </c>
+      <c r="H24" t="s">
+        <v>119</v>
+      </c>
+      <c r="I24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0"/>
@@ -15768,16 +16288,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>112</v>
@@ -15789,8 +16309,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0"/>
@@ -15802,34 +16322,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>112</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -15838,8 +16358,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15855,16 +16375,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>112</v>
@@ -15875,13 +16395,13 @@
         <v>9946</v>
       </c>
       <c r="B2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" t="s">
         <v>118</v>
       </c>
-      <c r="C2" t="s">
-        <v>119</v>
-      </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="E2" s="20">
         <v>45131</v>
@@ -15893,8 +16413,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15907,15 +16427,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="B2">
         <v>7</v>
@@ -15923,7 +16443,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="B3">
         <v>12</v>
@@ -15931,7 +16451,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="B4">
         <v>19</v>
@@ -15939,7 +16459,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -15947,7 +16467,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="B6">
         <v>23</v>
@@ -15959,8 +16479,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15975,10 +16495,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>36</v>
@@ -15987,18 +16507,18 @@
         <v>112</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="B2">
         <v>13009</v>
@@ -16010,41 +16530,41 @@
         <v>44886</v>
       </c>
       <c r="E2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" t="s">
         <v>119</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>128</v>
-      </c>
-      <c r="G2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="B3">
         <v>15955</v>
       </c>
       <c r="C3" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="D3" s="21">
         <v>44935</v>
       </c>
       <c r="E3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" t="s">
         <v>119</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>128</v>
-      </c>
-      <c r="G3" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="B4">
         <v>16069</v>
@@ -16056,18 +16576,18 @@
         <v>44991</v>
       </c>
       <c r="E4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" t="s">
         <v>119</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>128</v>
-      </c>
-      <c r="G4" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="B5">
         <v>11778</v>
@@ -16079,41 +16599,41 @@
         <v>45026</v>
       </c>
       <c r="E5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" t="s">
         <v>119</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>128</v>
-      </c>
-      <c r="G5" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="B6">
         <v>15624</v>
       </c>
       <c r="C6" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="D6" s="21">
         <v>45131</v>
       </c>
       <c r="E6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" t="s">
         <v>119</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>128</v>
-      </c>
-      <c r="G6" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="B7">
         <v>16199</v>
@@ -16125,18 +16645,18 @@
         <v>45152</v>
       </c>
       <c r="E7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7" t="s">
         <v>119</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>128</v>
-      </c>
-      <c r="G7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="B8">
         <v>16249</v>
@@ -16148,41 +16668,41 @@
         <v>45334</v>
       </c>
       <c r="E8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" t="s">
         <v>119</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>128</v>
-      </c>
-      <c r="G8" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="B9">
         <v>14004</v>
       </c>
       <c r="C9" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="D9" s="21">
         <v>44886</v>
       </c>
       <c r="E9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" t="s">
         <v>119</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>128</v>
-      </c>
-      <c r="G9" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="B10">
         <v>14529</v>
@@ -16194,18 +16714,18 @@
         <v>44929</v>
       </c>
       <c r="E10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F10" t="s">
         <v>119</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>128</v>
-      </c>
-      <c r="G10" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="B11">
         <v>16002</v>
@@ -16217,18 +16737,18 @@
         <v>44935</v>
       </c>
       <c r="E11" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11" t="s">
         <v>119</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>128</v>
-      </c>
-      <c r="G11" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="B12">
         <v>14509</v>
@@ -16240,18 +16760,18 @@
         <v>44956</v>
       </c>
       <c r="E12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F12" t="s">
         <v>119</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>128</v>
-      </c>
-      <c r="G12" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="B13">
         <v>15837</v>
@@ -16263,18 +16783,18 @@
         <v>44991</v>
       </c>
       <c r="E13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F13" t="s">
         <v>119</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>128</v>
-      </c>
-      <c r="G13" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="B14">
         <v>15520</v>
@@ -16286,18 +16806,18 @@
         <v>45075</v>
       </c>
       <c r="E14" t="s">
+        <v>118</v>
+      </c>
+      <c r="F14" t="s">
         <v>119</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>128</v>
-      </c>
-      <c r="G14" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="B15">
         <v>15519</v>
@@ -16309,64 +16829,64 @@
         <v>45075</v>
       </c>
       <c r="E15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F15" t="s">
         <v>119</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>128</v>
-      </c>
-      <c r="G15" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="B16">
         <v>16053</v>
       </c>
       <c r="C16" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="D16" s="21">
         <v>45138</v>
       </c>
       <c r="E16" t="s">
+        <v>118</v>
+      </c>
+      <c r="F16" t="s">
         <v>119</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>128</v>
-      </c>
-      <c r="G16" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="B17">
         <v>16388</v>
       </c>
       <c r="C17" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="D17" s="21">
         <v>45138</v>
       </c>
       <c r="E17" t="s">
+        <v>118</v>
+      </c>
+      <c r="F17" t="s">
         <v>119</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>128</v>
-      </c>
-      <c r="G17" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="B18">
         <v>15808</v>
@@ -16378,18 +16898,18 @@
         <v>45160</v>
       </c>
       <c r="E18" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" t="s">
         <v>119</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>128</v>
-      </c>
-      <c r="G18" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="B19">
         <v>15993</v>
@@ -16401,18 +16921,18 @@
         <v>45229</v>
       </c>
       <c r="E19" t="s">
+        <v>118</v>
+      </c>
+      <c r="F19" t="s">
         <v>119</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>128</v>
-      </c>
-      <c r="G19" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="B20">
         <v>16437</v>
@@ -16424,18 +16944,18 @@
         <v>45278</v>
       </c>
       <c r="E20" t="s">
+        <v>118</v>
+      </c>
+      <c r="F20" t="s">
         <v>119</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>128</v>
-      </c>
-      <c r="G20" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="B21">
         <v>15524</v>
@@ -16447,64 +16967,64 @@
         <v>44911</v>
       </c>
       <c r="E21" t="s">
+        <v>118</v>
+      </c>
+      <c r="F21" t="s">
         <v>119</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>128</v>
-      </c>
-      <c r="G21" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="B22">
         <v>13095</v>
       </c>
       <c r="C22" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="D22" s="21">
         <v>44914</v>
       </c>
       <c r="E22" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" t="s">
         <v>119</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>128</v>
-      </c>
-      <c r="G22" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="B23">
         <v>12408</v>
       </c>
       <c r="C23" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="D23" s="21">
         <v>44978</v>
       </c>
       <c r="E23" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" t="s">
         <v>119</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>128</v>
-      </c>
-      <c r="G23" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="B24">
         <v>15804</v>
@@ -16516,18 +17036,18 @@
         <v>45012</v>
       </c>
       <c r="E24" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" t="s">
         <v>119</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>128</v>
-      </c>
-      <c r="G24" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="B25">
         <v>10091</v>
@@ -16539,41 +17059,41 @@
         <v>45012</v>
       </c>
       <c r="E25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F25" t="s">
         <v>119</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>128</v>
-      </c>
-      <c r="G25" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="B26">
         <v>14554</v>
       </c>
       <c r="C26" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="D26" s="21">
         <v>45019</v>
       </c>
       <c r="E26" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26" t="s">
         <v>119</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>128</v>
-      </c>
-      <c r="G26" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="B27">
         <v>16246</v>
@@ -16585,41 +17105,41 @@
         <v>45040</v>
       </c>
       <c r="E27" t="s">
+        <v>118</v>
+      </c>
+      <c r="F27" t="s">
         <v>119</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>128</v>
-      </c>
-      <c r="G27" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="B28">
         <v>16387</v>
       </c>
       <c r="C28" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="D28" s="21">
         <v>45096</v>
       </c>
       <c r="E28" t="s">
+        <v>118</v>
+      </c>
+      <c r="F28" t="s">
         <v>119</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>128</v>
-      </c>
-      <c r="G28" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="B29">
         <v>9756</v>
@@ -16631,18 +17151,18 @@
         <v>45103</v>
       </c>
       <c r="E29" t="s">
+        <v>118</v>
+      </c>
+      <c r="F29" t="s">
         <v>119</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>128</v>
-      </c>
-      <c r="G29" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="B30">
         <v>9755</v>
@@ -16654,87 +17174,87 @@
         <v>45103</v>
       </c>
       <c r="E30" t="s">
+        <v>118</v>
+      </c>
+      <c r="F30" t="s">
         <v>119</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>128</v>
-      </c>
-      <c r="G30" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="B31">
         <v>12789</v>
       </c>
       <c r="C31" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="D31" s="21">
         <v>45117</v>
       </c>
       <c r="E31" t="s">
+        <v>118</v>
+      </c>
+      <c r="F31" t="s">
         <v>119</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>128</v>
-      </c>
-      <c r="G31" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="B32">
         <v>9946</v>
       </c>
       <c r="C32" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="D32" s="21">
         <v>45131</v>
       </c>
       <c r="E32" t="s">
+        <v>118</v>
+      </c>
+      <c r="F32" t="s">
         <v>119</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>128</v>
-      </c>
-      <c r="G32" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="B33">
         <v>15800</v>
       </c>
       <c r="C33" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="D33" s="21">
         <v>45135</v>
       </c>
       <c r="E33" t="s">
+        <v>118</v>
+      </c>
+      <c r="F33" t="s">
         <v>119</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>128</v>
-      </c>
-      <c r="G33" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="B34">
         <v>15876</v>
@@ -16746,18 +17266,18 @@
         <v>45145</v>
       </c>
       <c r="E34" t="s">
+        <v>118</v>
+      </c>
+      <c r="F34" t="s">
         <v>119</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>128</v>
-      </c>
-      <c r="G34" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="B35">
         <v>16616</v>
@@ -16769,18 +17289,18 @@
         <v>45201</v>
       </c>
       <c r="E35" t="s">
+        <v>118</v>
+      </c>
+      <c r="F35" t="s">
         <v>119</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>128</v>
-      </c>
-      <c r="G35" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="B36">
         <v>16483</v>
@@ -16792,18 +17312,18 @@
         <v>45222</v>
       </c>
       <c r="E36" t="s">
+        <v>118</v>
+      </c>
+      <c r="F36" t="s">
         <v>119</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>128</v>
-      </c>
-      <c r="G36" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="B37">
         <v>16233</v>
@@ -16815,18 +17335,18 @@
         <v>45257</v>
       </c>
       <c r="E37" t="s">
+        <v>118</v>
+      </c>
+      <c r="F37" t="s">
         <v>119</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>128</v>
-      </c>
-      <c r="G37" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="B38">
         <v>13134</v>
@@ -16838,18 +17358,18 @@
         <v>45299</v>
       </c>
       <c r="E38" t="s">
+        <v>118</v>
+      </c>
+      <c r="F38" t="s">
         <v>119</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>128</v>
-      </c>
-      <c r="G38" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="B39">
         <v>10617</v>
@@ -16861,41 +17381,41 @@
         <v>45607</v>
       </c>
       <c r="E39" t="s">
+        <v>118</v>
+      </c>
+      <c r="F39" t="s">
         <v>119</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>128</v>
-      </c>
-      <c r="G39" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="B40">
         <v>10718</v>
       </c>
       <c r="C40" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="D40" s="21">
         <v>44986</v>
       </c>
       <c r="E40" t="s">
+        <v>118</v>
+      </c>
+      <c r="F40" t="s">
         <v>119</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>128</v>
-      </c>
-      <c r="G40" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="B41">
         <v>15843</v>
@@ -16907,18 +17427,18 @@
         <v>44914</v>
       </c>
       <c r="E41" t="s">
+        <v>118</v>
+      </c>
+      <c r="F41" t="s">
         <v>119</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>128</v>
-      </c>
-      <c r="G41" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="B42">
         <v>14769</v>
@@ -16930,18 +17450,18 @@
         <v>44963</v>
       </c>
       <c r="E42" t="s">
+        <v>118</v>
+      </c>
+      <c r="F42" t="s">
         <v>119</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>128</v>
-      </c>
-      <c r="G42" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="B43">
         <v>7029</v>
@@ -16953,18 +17473,18 @@
         <v>44986</v>
       </c>
       <c r="E43" t="s">
+        <v>118</v>
+      </c>
+      <c r="F43" t="s">
         <v>119</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>128</v>
-      </c>
-      <c r="G43" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="B44">
         <v>15803</v>
@@ -16976,18 +17496,18 @@
         <v>44986</v>
       </c>
       <c r="E44" t="s">
+        <v>118</v>
+      </c>
+      <c r="F44" t="s">
         <v>119</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>128</v>
-      </c>
-      <c r="G44" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="B45">
         <v>16217</v>
@@ -16999,18 +17519,18 @@
         <v>44986</v>
       </c>
       <c r="E45" t="s">
+        <v>118</v>
+      </c>
+      <c r="F45" t="s">
         <v>119</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>128</v>
-      </c>
-      <c r="G45" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="B46">
         <v>16218</v>
@@ -17022,18 +17542,18 @@
         <v>44991</v>
       </c>
       <c r="E46" t="s">
+        <v>118</v>
+      </c>
+      <c r="F46" t="s">
         <v>119</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>128</v>
-      </c>
-      <c r="G46" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="B47">
         <v>14729</v>
@@ -17045,41 +17565,41 @@
         <v>45012</v>
       </c>
       <c r="E47" t="s">
+        <v>118</v>
+      </c>
+      <c r="F47" t="s">
         <v>119</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>128</v>
-      </c>
-      <c r="G47" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="B48">
         <v>16108</v>
       </c>
       <c r="C48" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="D48" s="21">
         <v>45012</v>
       </c>
       <c r="E48" t="s">
+        <v>118</v>
+      </c>
+      <c r="F48" t="s">
         <v>119</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>128</v>
-      </c>
-      <c r="G48" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="B49">
         <v>16176</v>
@@ -17091,41 +17611,41 @@
         <v>45026</v>
       </c>
       <c r="E49" t="s">
+        <v>118</v>
+      </c>
+      <c r="F49" t="s">
         <v>119</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>128</v>
-      </c>
-      <c r="G49" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="B50">
         <v>15419</v>
       </c>
       <c r="C50" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="D50" s="21">
         <v>45026</v>
       </c>
       <c r="E50" t="s">
+        <v>118</v>
+      </c>
+      <c r="F50" t="s">
         <v>119</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>128</v>
-      </c>
-      <c r="G50" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="B51">
         <v>16112</v>
@@ -17137,18 +17657,18 @@
         <v>45026</v>
       </c>
       <c r="E51" t="s">
+        <v>118</v>
+      </c>
+      <c r="F51" t="s">
         <v>119</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>128</v>
-      </c>
-      <c r="G51" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="B52">
         <v>16020</v>
@@ -17160,18 +17680,18 @@
         <v>45026</v>
       </c>
       <c r="E52" t="s">
+        <v>118</v>
+      </c>
+      <c r="F52" t="s">
         <v>119</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>128</v>
-      </c>
-      <c r="G52" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="B53">
         <v>12253</v>
@@ -17183,18 +17703,18 @@
         <v>45054</v>
       </c>
       <c r="E53" t="s">
+        <v>118</v>
+      </c>
+      <c r="F53" t="s">
         <v>119</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>128</v>
-      </c>
-      <c r="G53" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="B54">
         <v>12799</v>
@@ -17206,41 +17726,41 @@
         <v>45138</v>
       </c>
       <c r="E54" t="s">
+        <v>118</v>
+      </c>
+      <c r="F54" t="s">
         <v>119</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>128</v>
-      </c>
-      <c r="G54" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="B55">
         <v>16456</v>
       </c>
       <c r="C55" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="D55" s="21">
         <v>45138</v>
       </c>
       <c r="E55" t="s">
+        <v>118</v>
+      </c>
+      <c r="F55" t="s">
         <v>119</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>128</v>
-      </c>
-      <c r="G55" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="B56">
         <v>10901</v>
@@ -17252,18 +17772,18 @@
         <v>45159</v>
       </c>
       <c r="E56" t="s">
+        <v>118</v>
+      </c>
+      <c r="F56" t="s">
         <v>119</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>128</v>
-      </c>
-      <c r="G56" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="B57">
         <v>16095</v>
@@ -17275,41 +17795,41 @@
         <v>45176</v>
       </c>
       <c r="E57" t="s">
+        <v>118</v>
+      </c>
+      <c r="F57" t="s">
         <v>119</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>128</v>
-      </c>
-      <c r="G57" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="B58">
         <v>16205</v>
       </c>
       <c r="C58" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="D58" s="21">
         <v>45187</v>
       </c>
       <c r="E58" t="s">
+        <v>118</v>
+      </c>
+      <c r="F58" t="s">
         <v>119</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>128</v>
-      </c>
-      <c r="G58" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="B59">
         <v>8510</v>
@@ -17321,41 +17841,41 @@
         <v>45187</v>
       </c>
       <c r="E59" t="s">
+        <v>118</v>
+      </c>
+      <c r="F59" t="s">
         <v>119</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>128</v>
-      </c>
-      <c r="G59" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="B60">
         <v>12994</v>
       </c>
       <c r="C60" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="D60" s="21">
         <v>45201</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>128</v>
-      </c>
-      <c r="G60" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="B61">
         <v>10926</v>
@@ -17367,18 +17887,18 @@
         <v>45285</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>128</v>
-      </c>
-      <c r="G61" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="B62">
         <v>13229</v>
@@ -17390,18 +17910,18 @@
         <v>45551</v>
       </c>
       <c r="E62" t="s">
+        <v>118</v>
+      </c>
+      <c r="F62" t="s">
         <v>119</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>128</v>
-      </c>
-      <c r="G62" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="B63">
         <v>15469</v>
@@ -17413,79 +17933,13 @@
         <v>45614</v>
       </c>
       <c r="E63" t="s">
+        <v>118</v>
+      </c>
+      <c r="F63" t="s">
         <v>119</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>128</v>
-      </c>
-      <c r="G63" t="s">
-        <v>129</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="8" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B5">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B6">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/GMLA loading analysis/(Output) Data.xlsx
+++ b/GMLA loading analysis/(Output) Data.xlsx
@@ -4888,262 +4888,262 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
+          <t>1_NoDate(count)</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
           <t>2022-08</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
+      <c r="E2" s="1" t="inlineStr">
         <is>
           <t>2022-09</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
+      <c r="F2" s="1" t="inlineStr">
         <is>
           <t>2022-10</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="G2" s="1" t="inlineStr">
         <is>
           <t>2022-11</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
+      <c r="H2" s="1" t="inlineStr">
         <is>
           <t>2022-12</t>
         </is>
       </c>
-      <c r="H2" s="1" t="inlineStr">
+      <c r="I2" s="1" t="inlineStr">
         <is>
           <t>2023-01</t>
         </is>
       </c>
-      <c r="I2" s="1" t="inlineStr">
+      <c r="J2" s="1" t="inlineStr">
         <is>
           <t>2023-02</t>
         </is>
       </c>
-      <c r="J2" s="1" t="inlineStr">
+      <c r="K2" s="1" t="inlineStr">
         <is>
           <t>2023-03</t>
         </is>
       </c>
-      <c r="K2" s="1" t="inlineStr">
+      <c r="L2" s="1" t="inlineStr">
         <is>
           <t>2023-04</t>
         </is>
       </c>
-      <c r="L2" s="1" t="inlineStr">
+      <c r="M2" s="1" t="inlineStr">
         <is>
           <t>2023-05</t>
         </is>
       </c>
-      <c r="M2" s="1" t="inlineStr">
+      <c r="N2" s="1" t="inlineStr">
         <is>
           <t>2023-06</t>
         </is>
       </c>
-      <c r="N2" s="1" t="inlineStr">
+      <c r="O2" s="1" t="inlineStr">
         <is>
           <t>2023-07</t>
         </is>
       </c>
-      <c r="O2" s="1" t="inlineStr">
+      <c r="P2" s="1" t="inlineStr">
         <is>
           <t>2023-08</t>
         </is>
       </c>
-      <c r="P2" s="1" t="inlineStr">
+      <c r="Q2" s="1" t="inlineStr">
         <is>
           <t>2023-09</t>
         </is>
       </c>
-      <c r="Q2" s="1" t="inlineStr">
+      <c r="R2" s="1" t="inlineStr">
         <is>
           <t>2023-10</t>
         </is>
       </c>
-      <c r="R2" s="1" t="inlineStr">
+      <c r="S2" s="1" t="inlineStr">
         <is>
           <t>2023-11</t>
         </is>
       </c>
-      <c r="S2" s="1" t="inlineStr">
+      <c r="T2" s="1" t="inlineStr">
         <is>
           <t>2023-12</t>
         </is>
       </c>
-      <c r="T2" s="1" t="inlineStr">
+      <c r="U2" s="1" t="inlineStr">
         <is>
           <t>2024-01</t>
         </is>
       </c>
-      <c r="U2" s="1" t="inlineStr">
+      <c r="V2" s="1" t="inlineStr">
         <is>
           <t>2024-02</t>
         </is>
       </c>
-      <c r="V2" s="1" t="inlineStr">
+      <c r="W2" s="1" t="inlineStr">
         <is>
           <t>2024-03</t>
         </is>
       </c>
-      <c r="W2" s="1" t="inlineStr">
+      <c r="X2" s="1" t="inlineStr">
         <is>
           <t>2024-04</t>
         </is>
       </c>
-      <c r="X2" s="1" t="inlineStr">
+      <c r="Y2" s="1" t="inlineStr">
         <is>
           <t>2024-07</t>
         </is>
       </c>
-      <c r="Y2" s="1" t="inlineStr">
+      <c r="Z2" s="1" t="inlineStr">
         <is>
           <t>2024-08</t>
         </is>
       </c>
-      <c r="Z2" s="1" t="inlineStr">
+      <c r="AA2" s="1" t="inlineStr">
         <is>
           <t>2024-09</t>
         </is>
       </c>
-      <c r="AA2" s="1" t="inlineStr">
+      <c r="AB2" s="1" t="inlineStr">
         <is>
           <t>2024-11</t>
         </is>
       </c>
-      <c r="AB2" s="1" t="inlineStr">
-        <is>
-          <t>NoDate(count)</t>
-        </is>
-      </c>
       <c r="AC2" s="1" t="inlineStr">
         <is>
+          <t>1_NoDate(count)</t>
+        </is>
+      </c>
+      <c r="AD2" s="1" t="inlineStr">
+        <is>
           <t>2022-08</t>
         </is>
       </c>
-      <c r="AD2" s="1" t="inlineStr">
+      <c r="AE2" s="1" t="inlineStr">
         <is>
           <t>2022-09</t>
         </is>
       </c>
-      <c r="AE2" s="1" t="inlineStr">
+      <c r="AF2" s="1" t="inlineStr">
         <is>
           <t>2022-10</t>
         </is>
       </c>
-      <c r="AF2" s="1" t="inlineStr">
+      <c r="AG2" s="1" t="inlineStr">
         <is>
           <t>2022-11</t>
         </is>
       </c>
-      <c r="AG2" s="1" t="inlineStr">
+      <c r="AH2" s="1" t="inlineStr">
         <is>
           <t>2022-12</t>
         </is>
       </c>
-      <c r="AH2" s="1" t="inlineStr">
+      <c r="AI2" s="1" t="inlineStr">
         <is>
           <t>2023-01</t>
         </is>
       </c>
-      <c r="AI2" s="1" t="inlineStr">
+      <c r="AJ2" s="1" t="inlineStr">
         <is>
           <t>2023-02</t>
         </is>
       </c>
-      <c r="AJ2" s="1" t="inlineStr">
+      <c r="AK2" s="1" t="inlineStr">
         <is>
           <t>2023-03</t>
         </is>
       </c>
-      <c r="AK2" s="1" t="inlineStr">
+      <c r="AL2" s="1" t="inlineStr">
         <is>
           <t>2023-04</t>
         </is>
       </c>
-      <c r="AL2" s="1" t="inlineStr">
+      <c r="AM2" s="1" t="inlineStr">
         <is>
           <t>2023-05</t>
         </is>
       </c>
-      <c r="AM2" s="1" t="inlineStr">
+      <c r="AN2" s="1" t="inlineStr">
         <is>
           <t>2023-06</t>
         </is>
       </c>
-      <c r="AN2" s="1" t="inlineStr">
+      <c r="AO2" s="1" t="inlineStr">
         <is>
           <t>2023-07</t>
         </is>
       </c>
-      <c r="AO2" s="1" t="inlineStr">
+      <c r="AP2" s="1" t="inlineStr">
         <is>
           <t>2023-08</t>
         </is>
       </c>
-      <c r="AP2" s="1" t="inlineStr">
+      <c r="AQ2" s="1" t="inlineStr">
         <is>
           <t>2023-09</t>
         </is>
       </c>
-      <c r="AQ2" s="1" t="inlineStr">
+      <c r="AR2" s="1" t="inlineStr">
         <is>
           <t>2023-10</t>
         </is>
       </c>
-      <c r="AR2" s="1" t="inlineStr">
+      <c r="AS2" s="1" t="inlineStr">
         <is>
           <t>2023-11</t>
         </is>
       </c>
-      <c r="AS2" s="1" t="inlineStr">
+      <c r="AT2" s="1" t="inlineStr">
         <is>
           <t>2023-12</t>
         </is>
       </c>
-      <c r="AT2" s="1" t="inlineStr">
+      <c r="AU2" s="1" t="inlineStr">
         <is>
           <t>2024-01</t>
         </is>
       </c>
-      <c r="AU2" s="1" t="inlineStr">
+      <c r="AV2" s="1" t="inlineStr">
         <is>
           <t>2024-02</t>
         </is>
       </c>
-      <c r="AV2" s="1" t="inlineStr">
+      <c r="AW2" s="1" t="inlineStr">
         <is>
           <t>2024-03</t>
         </is>
       </c>
-      <c r="AW2" s="1" t="inlineStr">
+      <c r="AX2" s="1" t="inlineStr">
         <is>
           <t>2024-04</t>
         </is>
       </c>
-      <c r="AX2" s="1" t="inlineStr">
+      <c r="AY2" s="1" t="inlineStr">
         <is>
           <t>2024-07</t>
         </is>
       </c>
-      <c r="AY2" s="1" t="inlineStr">
+      <c r="AZ2" s="1" t="inlineStr">
         <is>
           <t>2024-08</t>
         </is>
       </c>
-      <c r="AZ2" s="1" t="inlineStr">
+      <c r="BA2" s="1" t="inlineStr">
         <is>
           <t>2024-09</t>
         </is>
       </c>
-      <c r="BA2" s="1" t="inlineStr">
+      <c r="BB2" s="1" t="inlineStr">
         <is>
           <t>2024-11</t>
-        </is>
-      </c>
-      <c r="BB2" s="1" t="inlineStr">
-        <is>
-          <t>NoDate(count)</t>
         </is>
       </c>
     </row>
@@ -5170,8 +5170,8 @@
           <t>1_NoPRwebProject_Descent T2 Transceiver</t>
         </is>
       </c>
-      <c r="C4" s="6" t="n">
-        <v>0</v>
+      <c r="C4" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="D4" s="6" t="n">
         <v>0</v>
@@ -5188,11 +5188,11 @@
       <c r="H4" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="I4" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="6" t="n">
-        <v>0</v>
+      <c r="I4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="K4" s="6" t="n">
         <v>0</v>
@@ -5200,14 +5200,14 @@
       <c r="L4" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="M4" s="22" t="n">
+      <c r="M4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="N4" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" s="6" t="n">
-        <v>0</v>
+      <c r="O4" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="P4" s="6" t="n">
         <v>0</v>
@@ -5245,11 +5245,11 @@
       <c r="AA4" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AB4" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="6" t="n">
-        <v>0</v>
+      <c r="AB4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AD4" s="6" t="n">
         <v>0</v>
@@ -5266,11 +5266,11 @@
       <c r="AH4" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AI4" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ4" s="6" t="n">
-        <v>0</v>
+      <c r="AI4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AK4" s="6" t="n">
         <v>0</v>
@@ -5278,14 +5278,14 @@
       <c r="AL4" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AM4" s="21" t="n">
-        <v>1</v>
+      <c r="AM4" s="6" t="n">
+        <v>0</v>
       </c>
       <c r="AN4" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="AO4" s="6" t="n">
-        <v>0</v>
+      <c r="AO4" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AP4" s="6" t="n">
         <v>0</v>
@@ -5323,8 +5323,8 @@
       <c r="BA4" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="BB4" s="21" t="n">
-        <v>1</v>
+      <c r="BB4" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -5334,8 +5334,8 @@
           <t>1_NoPRwebProject_Mercury</t>
         </is>
       </c>
-      <c r="C5" s="6" t="n">
-        <v>0</v>
+      <c r="C5" s="23" t="n">
+        <v>2</v>
       </c>
       <c r="D5" s="6" t="n">
         <v>0</v>
@@ -5409,12 +5409,12 @@
       <c r="AA5" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AB5" s="23" t="n">
+      <c r="AB5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="AC5" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="AD5" s="6" t="n">
         <v>0</v>
       </c>
@@ -5487,8 +5487,8 @@
       <c r="BA5" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="BB5" s="23" t="n">
-        <v>2</v>
+      <c r="BB5" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -5498,17 +5498,17 @@
           <t>Bounce(Waldo)</t>
         </is>
       </c>
-      <c r="C6" s="6" t="n">
-        <v>0</v>
+      <c r="C6" s="23" t="n">
+        <v>2</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="E6" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="6" t="n">
-        <v>0</v>
+      <c r="E6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
@@ -5573,20 +5573,20 @@
       <c r="AA6" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AB6" s="23" t="n">
+      <c r="AB6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="AC6" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="AD6" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AE6" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="6" t="n">
-        <v>0</v>
+      <c r="AE6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AG6" s="6" t="n">
         <v>0</v>
@@ -5651,8 +5651,8 @@
       <c r="BA6" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="BB6" s="23" t="n">
-        <v>2</v>
+      <c r="BB6" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -5662,8 +5662,8 @@
           <t>Cellular Tracking Module</t>
         </is>
       </c>
-      <c r="C7" s="6" t="n">
-        <v>0</v>
+      <c r="C7" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="D7" s="6" t="n">
         <v>0</v>
@@ -5686,26 +5686,26 @@
       <c r="J7" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="K7" s="23" t="n">
+      <c r="K7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="L7" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="M7" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="N7" s="22" t="n">
+      <c r="N7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="O7" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="6" t="n">
-        <v>0</v>
+      <c r="P7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="R7" s="6" t="n">
         <v>0</v>
@@ -5737,11 +5737,11 @@
       <c r="AA7" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AB7" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="6" t="n">
-        <v>0</v>
+      <c r="AB7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AD7" s="6" t="n">
         <v>0</v>
@@ -5764,26 +5764,26 @@
       <c r="AJ7" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AK7" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL7" s="6" t="n">
-        <v>0</v>
+      <c r="AK7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AM7" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AN7" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO7" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP7" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ7" s="6" t="n">
-        <v>0</v>
+      <c r="AN7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AR7" s="6" t="n">
         <v>0</v>
@@ -5815,8 +5815,8 @@
       <c r="BA7" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="BB7" s="21" t="n">
-        <v>1</v>
+      <c r="BB7" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -5826,26 +5826,26 @@
           <t>Forerunner 265</t>
         </is>
       </c>
-      <c r="C8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="23" t="n">
+      <c r="C8" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="E8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="22" t="n">
+      <c r="F8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="G8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="6" t="n">
-        <v>0</v>
+      <c r="H8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="J8" s="6" t="n">
         <v>0</v>
@@ -5901,29 +5901,29 @@
       <c r="AA8" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AB8" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI8" s="6" t="n">
-        <v>0</v>
+      <c r="AB8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AJ8" s="6" t="n">
         <v>0</v>
@@ -5979,8 +5979,8 @@
       <c r="BA8" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="BB8" s="21" t="n">
-        <v>1</v>
+      <c r="BB8" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -5990,26 +5990,26 @@
           <t>Forerunner 265s</t>
         </is>
       </c>
-      <c r="C9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="23" t="n">
+      <c r="C9" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="E9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="22" t="n">
+      <c r="F9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="G9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="6" t="n">
-        <v>0</v>
+      <c r="H9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="J9" s="6" t="n">
         <v>0</v>
@@ -6065,29 +6065,29 @@
       <c r="AA9" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AB9" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI9" s="6" t="n">
-        <v>0</v>
+      <c r="AB9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AJ9" s="6" t="n">
         <v>0</v>
@@ -6143,8 +6143,8 @@
       <c r="BA9" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="BB9" s="21" t="n">
-        <v>1</v>
+      <c r="BB9" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -6154,29 +6154,29 @@
           <t>Foretrex 801/901</t>
         </is>
       </c>
-      <c r="C10" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="23" t="n">
+      <c r="C10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="F10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="22" t="n">
+      <c r="G10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="H10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="6" t="n">
-        <v>0</v>
+      <c r="I10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="K10" s="6" t="n">
         <v>0</v>
@@ -6232,29 +6232,29 @@
       <c r="AB10" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AC10" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ10" s="6" t="n">
-        <v>0</v>
+      <c r="AC10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AK10" s="6" t="n">
         <v>0</v>
@@ -6318,8 +6318,8 @@
           <t>Lily 2</t>
         </is>
       </c>
-      <c r="C11" s="6" t="n">
-        <v>0</v>
+      <c r="C11" s="22" t="n">
+        <v>3</v>
       </c>
       <c r="D11" s="6" t="n">
         <v>0</v>
@@ -6360,11 +6360,11 @@
       <c r="P11" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="Q11" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="6" t="n">
-        <v>0</v>
+      <c r="Q11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="S11" s="6" t="n">
         <v>0</v>
@@ -6393,12 +6393,12 @@
       <c r="AA11" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AB11" s="22" t="n">
+      <c r="AB11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="AC11" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="AD11" s="6" t="n">
         <v>0</v>
       </c>
@@ -6438,11 +6438,11 @@
       <c r="AP11" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AQ11" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR11" s="6" t="n">
-        <v>0</v>
+      <c r="AQ11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AS11" s="6" t="n">
         <v>0</v>
@@ -6471,8 +6471,8 @@
       <c r="BA11" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="BB11" s="22" t="n">
-        <v>3</v>
+      <c r="BB11" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -6482,8 +6482,8 @@
           <t>Venu 3S</t>
         </is>
       </c>
-      <c r="C12" s="6" t="n">
-        <v>0</v>
+      <c r="C12" s="23" t="n">
+        <v>2</v>
       </c>
       <c r="D12" s="6" t="n">
         <v>0</v>
@@ -6494,12 +6494,12 @@
       <c r="F12" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="G12" s="23" t="n">
+      <c r="G12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="H12" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" s="6" t="n">
         <v>0</v>
       </c>
@@ -6509,11 +6509,11 @@
       <c r="K12" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L12" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" s="6" t="n">
-        <v>0</v>
+      <c r="L12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0</v>
@@ -6557,12 +6557,12 @@
       <c r="AA12" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AB12" s="23" t="n">
+      <c r="AB12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="AC12" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="AD12" s="6" t="n">
         <v>0</v>
       </c>
@@ -6572,11 +6572,11 @@
       <c r="AF12" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AG12" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH12" s="6" t="n">
-        <v>0</v>
+      <c r="AG12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AI12" s="6" t="n">
         <v>0</v>
@@ -6587,11 +6587,11 @@
       <c r="AK12" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AL12" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM12" s="6" t="n">
-        <v>0</v>
+      <c r="AL12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AN12" s="6" t="n">
         <v>0</v>
@@ -6635,8 +6635,8 @@
       <c r="BA12" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="BB12" s="23" t="n">
-        <v>2</v>
+      <c r="BB12" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -6649,29 +6649,29 @@
       <c r="C13" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D13" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="23" t="n">
+      <c r="D13" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="F13" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="G13" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H13" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="I13" s="22" t="n">
+      <c r="I13" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="J13" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="6" t="n">
-        <v>0</v>
+      <c r="K13" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="L13" s="6" t="n">
         <v>0</v>
@@ -6727,14 +6727,14 @@
       <c r="AC13" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AD13" s="21" t="n">
-        <v>1</v>
+      <c r="AD13" s="6" t="n">
+        <v>0</v>
       </c>
       <c r="AE13" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="AF13" s="6" t="n">
-        <v>0</v>
+      <c r="AF13" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AG13" s="6" t="n">
         <v>0</v>
@@ -6742,14 +6742,14 @@
       <c r="AH13" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AI13" s="21" t="n">
-        <v>1</v>
+      <c r="AI13" s="6" t="n">
+        <v>0</v>
       </c>
       <c r="AJ13" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="AK13" s="6" t="n">
-        <v>0</v>
+      <c r="AK13" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AL13" s="6" t="n">
         <v>0</v>
@@ -6813,32 +6813,32 @@
       <c r="C14" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D14" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="23" t="n">
+      <c r="D14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="G14" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="H14" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="I14" s="22" t="n">
+      <c r="I14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="J14" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" s="6" t="n">
-        <v>0</v>
+      <c r="K14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="M14" s="6" t="n">
         <v>0</v>
@@ -6891,32 +6891,32 @@
       <c r="AC14" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AD14" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE14" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG14" s="6" t="n">
-        <v>0</v>
+      <c r="AD14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AH14" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AI14" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ14" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK14" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL14" s="6" t="n">
-        <v>0</v>
+      <c r="AI14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AM14" s="6" t="n">
         <v>0</v>
@@ -6978,14 +6978,14 @@
           <t>1_NoPRwebProject_Fusion - Signature Series 4 Speakers and Subs</t>
         </is>
       </c>
-      <c r="C15" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="6" t="n">
-        <v>0</v>
+      <c r="C15" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="F15" s="6" t="n">
         <v>0</v>
@@ -7008,14 +7008,14 @@
       <c r="L15" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="M15" s="22" t="n">
+      <c r="M15" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="N15" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="O15" s="6" t="n">
-        <v>0</v>
+      <c r="O15" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="P15" s="6" t="n">
         <v>0</v>
@@ -7053,17 +7053,17 @@
       <c r="AA15" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AB15" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC15" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE15" s="6" t="n">
-        <v>0</v>
+      <c r="AB15" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AF15" s="6" t="n">
         <v>0</v>
@@ -7086,14 +7086,14 @@
       <c r="AL15" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AM15" s="21" t="n">
-        <v>1</v>
+      <c r="AM15" s="6" t="n">
+        <v>0</v>
       </c>
       <c r="AN15" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="AO15" s="6" t="n">
-        <v>0</v>
+      <c r="AO15" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AP15" s="6" t="n">
         <v>0</v>
@@ -7131,8 +7131,8 @@
       <c r="BA15" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="BB15" s="21" t="n">
-        <v>1</v>
+      <c r="BB15" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -7160,12 +7160,12 @@
       <c r="H16" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="I16" s="24" t="n">
+      <c r="I16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="J16" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="K16" s="6" t="n">
         <v>0</v>
       </c>
@@ -7238,11 +7238,11 @@
       <c r="AH16" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AI16" s="23" t="n">
+      <c r="AI16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="23" t="n">
         <v>2</v>
-      </c>
-      <c r="AJ16" s="6" t="n">
-        <v>0</v>
       </c>
       <c r="AK16" s="6" t="n">
         <v>0</v>
@@ -7306,8 +7306,8 @@
           <t>1_NoPRwebProject_Panoptix PS22-IF Transducer and Ice Fishing Bundles</t>
         </is>
       </c>
-      <c r="C17" s="6" t="n">
-        <v>0</v>
+      <c r="C17" s="24" t="n">
+        <v>4</v>
       </c>
       <c r="D17" s="6" t="n">
         <v>0</v>
@@ -7381,12 +7381,12 @@
       <c r="AA17" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AB17" s="24" t="n">
+      <c r="AB17" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="AC17" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="AD17" s="6" t="n">
         <v>0</v>
       </c>
@@ -7459,8 +7459,8 @@
       <c r="BA17" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="BB17" s="24" t="n">
-        <v>4</v>
+      <c r="BB17" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -7479,14 +7479,14 @@
       <c r="E18" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F18" s="22" t="n">
+      <c r="F18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="G18" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" s="6" t="n">
-        <v>0</v>
+      <c r="H18" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="I18" s="6" t="n">
         <v>0</v>
@@ -7557,14 +7557,14 @@
       <c r="AE18" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AF18" s="21" t="n">
-        <v>1</v>
+      <c r="AF18" s="6" t="n">
+        <v>0</v>
       </c>
       <c r="AG18" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="AH18" s="6" t="n">
-        <v>0</v>
+      <c r="AH18" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AI18" s="6" t="n">
         <v>0</v>
@@ -7643,14 +7643,14 @@
       <c r="E19" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F19" s="22" t="n">
+      <c r="F19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="G19" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" s="6" t="n">
-        <v>0</v>
+      <c r="H19" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0</v>
@@ -7721,14 +7721,14 @@
       <c r="AE19" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AF19" s="21" t="n">
-        <v>1</v>
+      <c r="AF19" s="6" t="n">
+        <v>0</v>
       </c>
       <c r="AG19" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="AH19" s="6" t="n">
-        <v>0</v>
+      <c r="AH19" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AI19" s="6" t="n">
         <v>0</v>
@@ -7807,14 +7807,14 @@
       <c r="E20" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F20" s="22" t="n">
+      <c r="F20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="G20" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" s="6" t="n">
-        <v>0</v>
+      <c r="H20" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>0</v>
@@ -7885,14 +7885,14 @@
       <c r="AE20" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AF20" s="21" t="n">
-        <v>1</v>
+      <c r="AF20" s="6" t="n">
+        <v>0</v>
       </c>
       <c r="AG20" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="AH20" s="6" t="n">
-        <v>0</v>
+      <c r="AH20" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AI20" s="6" t="n">
         <v>0</v>
@@ -7986,29 +7986,29 @@
       <c r="J21" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="K21" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" s="23" t="n">
+      <c r="K21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="N21" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="O21" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="P21" s="22" t="n">
+      <c r="P21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="Q21" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="R21" s="6" t="n">
-        <v>0</v>
+      <c r="R21" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="S21" s="6" t="n">
         <v>0</v>
@@ -8064,29 +8064,29 @@
       <c r="AJ21" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AK21" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM21" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN21" s="6" t="n">
-        <v>0</v>
+      <c r="AK21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AO21" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AP21" s="21" t="n">
-        <v>1</v>
+      <c r="AP21" s="6" t="n">
+        <v>0</v>
       </c>
       <c r="AQ21" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="AR21" s="6" t="n">
-        <v>0</v>
+      <c r="AR21" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AS21" s="6" t="n">
         <v>0</v>
@@ -8126,23 +8126,23 @@
           <t>FUSION - WB675 Hide Away Stereo</t>
         </is>
       </c>
-      <c r="C22" s="6" t="n">
-        <v>0</v>
+      <c r="C22" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="D22" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="E22" s="22" t="n">
+      <c r="E22" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="F22" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22" s="6" t="n">
-        <v>0</v>
+      <c r="G22" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>0</v>
@@ -8201,26 +8201,26 @@
       <c r="AA22" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AB22" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC22" s="6" t="n">
-        <v>0</v>
+      <c r="AB22" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AD22" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AE22" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF22" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG22" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH22" s="6" t="n">
-        <v>0</v>
+      <c r="AE22" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG22" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AI22" s="6" t="n">
         <v>0</v>
@@ -8279,8 +8279,8 @@
       <c r="BA22" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="BB22" s="21" t="n">
-        <v>1</v>
+      <c r="BB22" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -8323,11 +8323,11 @@
       <c r="M23" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="N23" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="O23" s="6" t="n">
-        <v>0</v>
+      <c r="N23" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="P23" s="6" t="n">
         <v>0</v>
@@ -8350,23 +8350,23 @@
       <c r="V23" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="W23" s="23" t="n">
+      <c r="W23" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="X23" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="22" t="n">
+      <c r="Y23" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="Z23" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB23" s="6" t="n">
-        <v>0</v>
+      <c r="AA23" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AC23" s="6" t="n">
         <v>0</v>
@@ -8401,11 +8401,11 @@
       <c r="AM23" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AN23" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO23" s="6" t="n">
-        <v>0</v>
+      <c r="AN23" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO23" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AP23" s="6" t="n">
         <v>0</v>
@@ -8428,23 +8428,23 @@
       <c r="AV23" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AW23" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX23" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY23" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ23" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA23" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB23" s="6" t="n">
-        <v>0</v>
+      <c r="AW23" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX23" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY23" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ23" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA23" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB23" s="21" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -8472,26 +8472,26 @@
       <c r="H24" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="I24" s="23" t="n">
+      <c r="I24" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="J24" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="K24" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L24" s="22" t="n">
+      <c r="L24" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="M24" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="O24" s="6" t="n">
-        <v>0</v>
+      <c r="N24" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="P24" s="6" t="n">
         <v>0</v>
@@ -8550,26 +8550,26 @@
       <c r="AH24" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AI24" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ24" s="6" t="n">
-        <v>0</v>
+      <c r="AI24" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AK24" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AL24" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM24" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN24" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO24" s="6" t="n">
-        <v>0</v>
+      <c r="AL24" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM24" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN24" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO24" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AP24" s="6" t="n">
         <v>0</v>
@@ -8621,32 +8621,32 @@
       <c r="C25" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D25" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="23" t="n">
+      <c r="D25" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="G25" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="H25" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="I25" s="22" t="n">
+      <c r="I25" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="J25" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L25" s="6" t="n">
-        <v>0</v>
+      <c r="K25" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="M25" s="6" t="n">
         <v>0</v>
@@ -8699,32 +8699,32 @@
       <c r="AC25" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AD25" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE25" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG25" s="6" t="n">
-        <v>0</v>
+      <c r="AD25" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF25" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AH25" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AI25" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ25" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK25" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL25" s="6" t="n">
-        <v>0</v>
+      <c r="AI25" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK25" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AM25" s="6" t="n">
         <v>0</v>
@@ -8791,23 +8791,23 @@
       <c r="E26" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F26" s="23" t="n">
+      <c r="F26" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="G26" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="H26" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="I26" s="22" t="n">
+      <c r="I26" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="J26" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="K26" s="6" t="n">
-        <v>0</v>
+      <c r="K26" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="L26" s="6" t="n">
         <v>0</v>
@@ -8869,23 +8869,23 @@
       <c r="AE26" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AF26" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG26" s="6" t="n">
-        <v>0</v>
+      <c r="AF26" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AH26" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AI26" s="21" t="n">
-        <v>1</v>
+      <c r="AI26" s="6" t="n">
+        <v>0</v>
       </c>
       <c r="AJ26" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="AK26" s="6" t="n">
-        <v>0</v>
+      <c r="AK26" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AL26" s="6" t="n">
         <v>0</v>
@@ -8964,26 +8964,26 @@
       <c r="H27" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="I27" s="23" t="n">
+      <c r="I27" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="J27" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="K27" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L27" s="22" t="n">
+      <c r="L27" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="M27" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="O27" s="6" t="n">
-        <v>0</v>
+      <c r="N27" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="P27" s="6" t="n">
         <v>0</v>
@@ -9042,26 +9042,26 @@
       <c r="AH27" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AI27" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ27" s="6" t="n">
-        <v>0</v>
+      <c r="AI27" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AK27" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AL27" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM27" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN27" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO27" s="6" t="n">
-        <v>0</v>
+      <c r="AL27" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM27" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN27" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO27" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AP27" s="6" t="n">
         <v>0</v>
@@ -9128,26 +9128,26 @@
       <c r="H28" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="I28" s="23" t="n">
+      <c r="I28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="J28" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="K28" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L28" s="22" t="n">
+      <c r="L28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="M28" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="O28" s="6" t="n">
-        <v>0</v>
+      <c r="N28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="P28" s="6" t="n">
         <v>0</v>
@@ -9206,26 +9206,26 @@
       <c r="AH28" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AI28" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ28" s="6" t="n">
-        <v>0</v>
+      <c r="AI28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AK28" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AL28" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM28" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN28" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO28" s="6" t="n">
-        <v>0</v>
+      <c r="AL28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO28" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AP28" s="6" t="n">
         <v>0</v>
@@ -9292,26 +9292,26 @@
       <c r="H29" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="I29" s="23" t="n">
+      <c r="I29" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="J29" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="K29" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L29" s="22" t="n">
+      <c r="L29" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="M29" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="O29" s="6" t="n">
-        <v>0</v>
+      <c r="N29" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="P29" s="6" t="n">
         <v>0</v>
@@ -9370,26 +9370,26 @@
       <c r="AH29" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AI29" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ29" s="6" t="n">
-        <v>0</v>
+      <c r="AI29" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AK29" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AL29" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM29" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN29" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO29" s="6" t="n">
-        <v>0</v>
+      <c r="AL29" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM29" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN29" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO29" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AP29" s="6" t="n">
         <v>0</v>
@@ -9453,11 +9453,11 @@
       <c r="G30" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="H30" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" s="6" t="n">
-        <v>0</v>
+      <c r="H30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="J30" s="6" t="n">
         <v>0</v>
@@ -9468,23 +9468,23 @@
       <c r="L30" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="M30" s="23" t="n">
+      <c r="M30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="N30" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" s="22" t="n">
+      <c r="O30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="P30" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="R30" s="6" t="n">
-        <v>0</v>
+      <c r="Q30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="S30" s="6" t="n">
         <v>0</v>
@@ -9531,11 +9531,11 @@
       <c r="AG30" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AH30" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI30" s="6" t="n">
-        <v>0</v>
+      <c r="AH30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AJ30" s="6" t="n">
         <v>0</v>
@@ -9546,23 +9546,23 @@
       <c r="AL30" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AM30" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN30" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO30" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP30" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ30" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR30" s="6" t="n">
-        <v>0</v>
+      <c r="AM30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN30" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP30" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR30" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AS30" s="6" t="n">
         <v>0</v>
@@ -9611,11 +9611,11 @@
       <c r="E31" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F31" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" s="6" t="n">
-        <v>0</v>
+      <c r="F31" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="H31" s="6" t="n">
         <v>0</v>
@@ -9623,26 +9623,26 @@
       <c r="I31" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="J31" s="23" t="n">
+      <c r="J31" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="K31" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="L31" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="M31" s="22" t="n">
+      <c r="M31" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="N31" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="P31" s="6" t="n">
-        <v>0</v>
+      <c r="O31" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="Q31" s="6" t="n">
         <v>0</v>
@@ -9689,11 +9689,11 @@
       <c r="AE31" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AF31" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG31" s="6" t="n">
-        <v>0</v>
+      <c r="AF31" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AH31" s="6" t="n">
         <v>0</v>
@@ -9701,26 +9701,26 @@
       <c r="AI31" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AJ31" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK31" s="6" t="n">
-        <v>0</v>
+      <c r="AJ31" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK31" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AL31" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AM31" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN31" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO31" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP31" s="6" t="n">
-        <v>0</v>
+      <c r="AM31" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN31" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO31" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP31" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AQ31" s="6" t="n">
         <v>0</v>
@@ -9772,11 +9772,11 @@
       <c r="D32" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="E32" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F32" s="6" t="n">
-        <v>0</v>
+      <c r="E32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0</v>
@@ -9790,32 +9790,32 @@
       <c r="J32" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="K32" s="23" t="n">
+      <c r="K32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="L32" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="M32" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="O32" s="22" t="n">
+      <c r="O32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="P32" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="Q32" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="R32" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="S32" s="6" t="n">
-        <v>0</v>
+      <c r="R32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="T32" s="6" t="n">
         <v>0</v>
@@ -9850,11 +9850,11 @@
       <c r="AD32" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AE32" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF32" s="6" t="n">
-        <v>0</v>
+      <c r="AE32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AG32" s="6" t="n">
         <v>0</v>
@@ -9868,11 +9868,11 @@
       <c r="AJ32" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AK32" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL32" s="6" t="n">
-        <v>0</v>
+      <c r="AK32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AM32" s="6" t="n">
         <v>0</v>
@@ -9880,20 +9880,20 @@
       <c r="AN32" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AO32" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP32" s="6" t="n">
-        <v>0</v>
+      <c r="AO32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP32" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AQ32" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AR32" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS32" s="6" t="n">
-        <v>0</v>
+      <c r="AR32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS32" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AT32" s="6" t="n">
         <v>0</v>
@@ -9936,29 +9936,29 @@
       <c r="D33" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="E33" s="23" t="n">
+      <c r="E33" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="F33" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="G33" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="H33" s="22" t="n">
+      <c r="H33" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="I33" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="J33" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="K33" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L33" s="6" t="n">
-        <v>0</v>
+      <c r="K33" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="M33" s="6" t="n">
         <v>0</v>
@@ -10014,29 +10014,29 @@
       <c r="AD33" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AE33" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF33" s="6" t="n">
-        <v>0</v>
+      <c r="AE33" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AG33" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AH33" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI33" s="6" t="n">
-        <v>0</v>
+      <c r="AH33" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AJ33" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AK33" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL33" s="6" t="n">
-        <v>0</v>
+      <c r="AK33" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AM33" s="6" t="n">
         <v>0</v>
@@ -10100,29 +10100,29 @@
       <c r="D34" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="E34" s="23" t="n">
+      <c r="E34" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="F34" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="G34" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="H34" s="22" t="n">
+      <c r="H34" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="I34" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="J34" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="K34" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L34" s="6" t="n">
-        <v>0</v>
+      <c r="K34" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="M34" s="6" t="n">
         <v>0</v>
@@ -10178,29 +10178,29 @@
       <c r="AD34" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AE34" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF34" s="6" t="n">
-        <v>0</v>
+      <c r="AE34" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AG34" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AH34" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI34" s="6" t="n">
-        <v>0</v>
+      <c r="AH34" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI34" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AJ34" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AK34" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL34" s="6" t="n">
-        <v>0</v>
+      <c r="AK34" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AM34" s="6" t="n">
         <v>0</v>
@@ -10264,11 +10264,11 @@
       <c r="D35" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="E35" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F35" s="6" t="n">
-        <v>0</v>
+      <c r="E35" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0</v>
@@ -10342,11 +10342,11 @@
       <c r="AD35" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AE35" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF35" s="6" t="n">
-        <v>0</v>
+      <c r="AE35" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AG35" s="6" t="n">
         <v>0</v>
@@ -10426,8 +10426,8 @@
           <t>1_NoPRwebProject_Approach G20</t>
         </is>
       </c>
-      <c r="C36" s="6" t="n">
-        <v>0</v>
+      <c r="C36" s="24" t="n">
+        <v>4</v>
       </c>
       <c r="D36" s="6" t="n">
         <v>0</v>
@@ -10501,12 +10501,12 @@
       <c r="AA36" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AB36" s="24" t="n">
+      <c r="AB36" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="AC36" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="AD36" s="6" t="n">
         <v>0</v>
       </c>
@@ -10579,8 +10579,8 @@
       <c r="BA36" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="BB36" s="24" t="n">
-        <v>4</v>
+      <c r="BB36" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -10590,8 +10590,8 @@
           <t>1_NoPRwebProject_Companion Dog Tracking Collar</t>
         </is>
       </c>
-      <c r="C37" s="6" t="n">
-        <v>0</v>
+      <c r="C37" s="24" t="n">
+        <v>4</v>
       </c>
       <c r="D37" s="6" t="n">
         <v>0</v>
@@ -10665,12 +10665,12 @@
       <c r="AA37" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AB37" s="24" t="n">
+      <c r="AB37" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="AC37" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="AD37" s="6" t="n">
         <v>0</v>
       </c>
@@ -10743,8 +10743,8 @@
       <c r="BA37" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="BB37" s="24" t="n">
-        <v>4</v>
+      <c r="BB37" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -10754,8 +10754,8 @@
           <t>1_NoPRwebProject_HRM-Hera</t>
         </is>
       </c>
-      <c r="C38" s="6" t="n">
-        <v>0</v>
+      <c r="C38" s="23" t="n">
+        <v>2</v>
       </c>
       <c r="D38" s="6" t="n">
         <v>0</v>
@@ -10769,11 +10769,11 @@
       <c r="G38" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="H38" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" s="6" t="n">
-        <v>0</v>
+      <c r="H38" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="J38" s="6" t="n">
         <v>0</v>
@@ -10787,11 +10787,11 @@
       <c r="M38" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="N38" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="O38" s="6" t="n">
-        <v>0</v>
+      <c r="N38" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="P38" s="6" t="n">
         <v>0</v>
@@ -10829,12 +10829,12 @@
       <c r="AA38" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AB38" s="23" t="n">
+      <c r="AB38" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="AC38" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="AD38" s="6" t="n">
         <v>0</v>
       </c>
@@ -10847,11 +10847,11 @@
       <c r="AG38" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AH38" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI38" s="6" t="n">
-        <v>0</v>
+      <c r="AH38" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI38" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AJ38" s="6" t="n">
         <v>0</v>
@@ -10865,11 +10865,11 @@
       <c r="AM38" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AN38" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO38" s="6" t="n">
-        <v>0</v>
+      <c r="AN38" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO38" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AP38" s="6" t="n">
         <v>0</v>
@@ -10907,8 +10907,8 @@
       <c r="BA38" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="BB38" s="23" t="n">
-        <v>2</v>
+      <c r="BB38" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -10918,8 +10918,8 @@
           <t>1_NoPRwebProject_L20 Laser Range Finder</t>
         </is>
       </c>
-      <c r="C39" s="6" t="n">
-        <v>0</v>
+      <c r="C39" s="24" t="n">
+        <v>4</v>
       </c>
       <c r="D39" s="6" t="n">
         <v>0</v>
@@ -10993,12 +10993,12 @@
       <c r="AA39" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AB39" s="24" t="n">
+      <c r="AB39" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="AC39" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="AD39" s="6" t="n">
         <v>0</v>
       </c>
@@ -11071,8 +11071,8 @@
       <c r="BA39" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="BB39" s="24" t="n">
-        <v>4</v>
+      <c r="BB39" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -11082,8 +11082,8 @@
           <t>1_NoPRwebProject_Product - GDC 7500</t>
         </is>
       </c>
-      <c r="C40" s="6" t="n">
-        <v>0</v>
+      <c r="C40" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="D40" s="6" t="n">
         <v>0</v>
@@ -11157,11 +11157,11 @@
       <c r="AA40" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AB40" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC40" s="6" t="n">
-        <v>0</v>
+      <c r="AB40" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AD40" s="6" t="n">
         <v>0</v>
@@ -11235,8 +11235,8 @@
       <c r="BA40" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="BB40" s="21" t="n">
-        <v>1</v>
+      <c r="BB40" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -11246,8 +11246,8 @@
           <t>1_NoPRwebProject_Product - GI 275</t>
         </is>
       </c>
-      <c r="C41" s="6" t="n">
-        <v>0</v>
+      <c r="C41" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="D41" s="6" t="n">
         <v>0</v>
@@ -11321,11 +11321,11 @@
       <c r="AA41" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AB41" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC41" s="6" t="n">
-        <v>0</v>
+      <c r="AB41" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AD41" s="6" t="n">
         <v>0</v>
@@ -11399,8 +11399,8 @@
       <c r="BA41" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="BB41" s="21" t="n">
-        <v>1</v>
+      <c r="BB41" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -11410,8 +11410,8 @@
           <t>1_NoPRwebProject_Product - GLA 85</t>
         </is>
       </c>
-      <c r="C42" s="6" t="n">
-        <v>0</v>
+      <c r="C42" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="D42" s="6" t="n">
         <v>0</v>
@@ -11485,11 +11485,11 @@
       <c r="AA42" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AB42" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC42" s="6" t="n">
-        <v>0</v>
+      <c r="AB42" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AD42" s="6" t="n">
         <v>0</v>
@@ -11563,8 +11563,8 @@
       <c r="BA42" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="BB42" s="21" t="n">
-        <v>1</v>
+      <c r="BB42" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -11574,32 +11574,32 @@
           <t>Alpha Dog Collar</t>
         </is>
       </c>
-      <c r="C43" s="23" t="n">
+      <c r="C43" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="D43" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="E43" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="G43" s="22" t="n">
+      <c r="G43" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="H43" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="J43" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="K43" s="6" t="n">
-        <v>0</v>
+      <c r="J43" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="L43" s="6" t="n">
         <v>0</v>
@@ -11652,11 +11652,11 @@
       <c r="AB43" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AC43" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD43" s="6" t="n">
-        <v>0</v>
+      <c r="AC43" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AE43" s="6" t="n">
         <v>0</v>
@@ -11664,20 +11664,20 @@
       <c r="AF43" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AG43" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH43" s="6" t="n">
-        <v>0</v>
+      <c r="AG43" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH43" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AI43" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AJ43" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK43" s="6" t="n">
-        <v>0</v>
+      <c r="AJ43" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK43" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AL43" s="6" t="n">
         <v>0</v>
@@ -11753,11 +11753,11 @@
       <c r="G44" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="H44" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" s="6" t="n">
-        <v>0</v>
+      <c r="H44" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="J44" s="6" t="n">
         <v>0</v>
@@ -11771,26 +11771,26 @@
       <c r="M44" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="N44" s="23" t="n">
+      <c r="N44" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="O44" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="P44" s="6" t="n">
         <v>0</v>
       </c>
       <c r="Q44" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="R44" s="22" t="n">
+      <c r="R44" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="S44" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="T44" s="6" t="n">
-        <v>0</v>
+      <c r="T44" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0</v>
@@ -11831,11 +11831,11 @@
       <c r="AG44" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AH44" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI44" s="6" t="n">
-        <v>0</v>
+      <c r="AH44" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI44" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AJ44" s="6" t="n">
         <v>0</v>
@@ -11849,11 +11849,11 @@
       <c r="AM44" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AN44" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO44" s="6" t="n">
-        <v>0</v>
+      <c r="AN44" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO44" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AP44" s="6" t="n">
         <v>0</v>
@@ -11861,14 +11861,14 @@
       <c r="AQ44" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AR44" s="21" t="n">
-        <v>1</v>
+      <c r="AR44" s="6" t="n">
+        <v>0</v>
       </c>
       <c r="AS44" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="AT44" s="6" t="n">
-        <v>0</v>
+      <c r="AT44" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AU44" s="6" t="n">
         <v>0</v>
@@ -11902,20 +11902,20 @@
           <t>Dash Cam Live (LTE)</t>
         </is>
       </c>
-      <c r="C45" s="22" t="n">
+      <c r="C45" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="D45" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="E45" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F45" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G45" s="6" t="n">
-        <v>0</v>
+      <c r="F45" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="H45" s="6" t="n">
         <v>0</v>
@@ -11980,20 +11980,20 @@
       <c r="AB45" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AC45" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD45" s="6" t="n">
-        <v>0</v>
+      <c r="AC45" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AE45" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AF45" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG45" s="6" t="n">
-        <v>0</v>
+      <c r="AF45" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG45" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AH45" s="6" t="n">
         <v>0</v>
@@ -12066,8 +12066,8 @@
           <t>Descent X1i</t>
         </is>
       </c>
-      <c r="C46" s="6" t="n">
-        <v>0</v>
+      <c r="C46" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="D46" s="6" t="n">
         <v>0</v>
@@ -12117,11 +12117,11 @@
       <c r="S46" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="T46" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="U46" s="6" t="n">
-        <v>0</v>
+      <c r="T46" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="V46" s="6" t="n">
         <v>0</v>
@@ -12135,17 +12135,17 @@
       <c r="Y46" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="Z46" s="22" t="n">
+      <c r="Z46" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="AA46" s="21" t="n">
-        <v>1</v>
-      </c>
       <c r="AB46" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="AC46" s="6" t="n">
-        <v>0</v>
+      <c r="AC46" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AD46" s="6" t="n">
         <v>0</v>
@@ -12195,11 +12195,11 @@
       <c r="AS46" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AT46" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU46" s="6" t="n">
-        <v>0</v>
+      <c r="AT46" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU46" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AV46" s="6" t="n">
         <v>0</v>
@@ -12213,8 +12213,8 @@
       <c r="AY46" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AZ46" s="21" t="n">
-        <v>1</v>
+      <c r="AZ46" s="6" t="n">
+        <v>0</v>
       </c>
       <c r="BA46" s="21" t="n">
         <v>1</v>
@@ -12230,8 +12230,8 @@
           <t>Edge 540 840</t>
         </is>
       </c>
-      <c r="C47" s="6" t="n">
-        <v>0</v>
+      <c r="C47" s="22" t="n">
+        <v>3</v>
       </c>
       <c r="D47" s="6" t="n">
         <v>0</v>
@@ -12245,11 +12245,11 @@
       <c r="G47" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="H47" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" s="6" t="n">
-        <v>0</v>
+      <c r="H47" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="J47" s="6" t="n">
         <v>0</v>
@@ -12305,12 +12305,12 @@
       <c r="AA47" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AB47" s="22" t="n">
+      <c r="AB47" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="AC47" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="AD47" s="6" t="n">
         <v>0</v>
       </c>
@@ -12323,11 +12323,11 @@
       <c r="AG47" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AH47" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI47" s="6" t="n">
-        <v>0</v>
+      <c r="AH47" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI47" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AJ47" s="6" t="n">
         <v>0</v>
@@ -12383,8 +12383,8 @@
       <c r="BA47" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="BB47" s="22" t="n">
-        <v>3</v>
+      <c r="BB47" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -12394,8 +12394,8 @@
           <t>Rally X10 Family</t>
         </is>
       </c>
-      <c r="C48" s="6" t="n">
-        <v>0</v>
+      <c r="C48" s="24" t="n">
+        <v>4</v>
       </c>
       <c r="D48" s="6" t="n">
         <v>0</v>
@@ -12469,12 +12469,12 @@
       <c r="AA48" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AB48" s="24" t="n">
+      <c r="AB48" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="AC48" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="AD48" s="6" t="n">
         <v>0</v>
       </c>
@@ -12547,8 +12547,8 @@
       <c r="BA48" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="BB48" s="24" t="n">
-        <v>4</v>
+      <c r="BB48" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -12558,8 +12558,8 @@
           <t>Tacx NEO 3M</t>
         </is>
       </c>
-      <c r="C49" s="6" t="n">
-        <v>0</v>
+      <c r="C49" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="D49" s="6" t="n">
         <v>0</v>
@@ -12567,11 +12567,11 @@
       <c r="E49" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F49" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G49" s="6" t="n">
-        <v>0</v>
+      <c r="F49" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="H49" s="6" t="n">
         <v>0</v>
@@ -12591,14 +12591,14 @@
       <c r="M49" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="N49" s="22" t="n">
+      <c r="N49" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="O49" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="P49" s="6" t="n">
-        <v>0</v>
+      <c r="P49" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="Q49" s="6" t="n">
         <v>0</v>
@@ -12633,11 +12633,11 @@
       <c r="AA49" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AB49" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC49" s="6" t="n">
-        <v>0</v>
+      <c r="AB49" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AD49" s="6" t="n">
         <v>0</v>
@@ -12645,11 +12645,11 @@
       <c r="AE49" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AF49" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG49" s="6" t="n">
-        <v>0</v>
+      <c r="AF49" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG49" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AH49" s="6" t="n">
         <v>0</v>
@@ -12669,14 +12669,14 @@
       <c r="AM49" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AN49" s="21" t="n">
-        <v>1</v>
+      <c r="AN49" s="6" t="n">
+        <v>0</v>
       </c>
       <c r="AO49" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="AP49" s="6" t="n">
-        <v>0</v>
+      <c r="AP49" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AQ49" s="6" t="n">
         <v>0</v>
@@ -12711,8 +12711,8 @@
       <c r="BA49" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="BB49" s="21" t="n">
-        <v>1</v>
+      <c r="BB49" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -12722,17 +12722,17 @@
           <t>Tacx NEO Bike Plus_Shifter</t>
         </is>
       </c>
-      <c r="C50" s="6" t="n">
-        <v>0</v>
+      <c r="C50" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="D50" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="E50" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F50" s="6" t="n">
-        <v>0</v>
+      <c r="E50" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0</v>
@@ -12797,20 +12797,20 @@
       <c r="AA50" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AB50" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC50" s="6" t="n">
-        <v>0</v>
+      <c r="AB50" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AD50" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AE50" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF50" s="6" t="n">
-        <v>0</v>
+      <c r="AE50" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AG50" s="6" t="n">
         <v>0</v>
@@ -12875,8 +12875,8 @@
       <c r="BA50" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="BB50" s="21" t="n">
-        <v>1</v>
+      <c r="BB50" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -12892,26 +12892,26 @@
       <c r="D51" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="E51" s="23" t="n">
+      <c r="E51" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="F51" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" s="22" t="n">
+      <c r="G51" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="H51" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="J51" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="K51" s="6" t="n">
-        <v>0</v>
+      <c r="J51" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="L51" s="6" t="n">
         <v>0</v>
@@ -12970,26 +12970,26 @@
       <c r="AD51" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AE51" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF51" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG51" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH51" s="6" t="n">
-        <v>0</v>
+      <c r="AE51" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG51" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH51" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AI51" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AJ51" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK51" s="6" t="n">
-        <v>0</v>
+      <c r="AJ51" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK51" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AL51" s="6" t="n">
         <v>0</v>
@@ -13089,11 +13089,11 @@
       <c r="O52" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="P52" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q52" s="6" t="n">
-        <v>0</v>
+      <c r="P52" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="R52" s="6" t="n">
         <v>0</v>
@@ -13107,23 +13107,23 @@
       <c r="U52" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="V52" s="23" t="n">
+      <c r="V52" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="W52" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X52" s="22" t="n">
+      <c r="X52" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="Y52" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA52" s="6" t="n">
-        <v>0</v>
+      <c r="Z52" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AB52" s="6" t="n">
         <v>0</v>
@@ -13167,11 +13167,11 @@
       <c r="AO52" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AP52" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ52" s="6" t="n">
-        <v>0</v>
+      <c r="AP52" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ52" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AR52" s="6" t="n">
         <v>0</v>
@@ -13185,23 +13185,23 @@
       <c r="AU52" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AV52" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW52" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX52" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY52" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ52" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA52" s="6" t="n">
-        <v>0</v>
+      <c r="AV52" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW52" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX52" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY52" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ52" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA52" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="BB52" s="6" t="n">
         <v>0</v>
@@ -13235,17 +13235,17 @@
       <c r="I53" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="J53" s="22" t="n">
+      <c r="J53" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="K53" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L53" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" s="6" t="n">
-        <v>0</v>
+      <c r="L53" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0</v>
@@ -13313,17 +13313,17 @@
       <c r="AI53" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AJ53" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK53" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL53" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM53" s="6" t="n">
-        <v>0</v>
+      <c r="AJ53" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK53" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL53" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM53" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AN53" s="6" t="n">
         <v>0</v>
@@ -13378,8 +13378,8 @@
           <t>Xero G2i SatCom Scouting Camera</t>
         </is>
       </c>
-      <c r="C54" s="6" t="n">
-        <v>0</v>
+      <c r="C54" s="24" t="n">
+        <v>4</v>
       </c>
       <c r="D54" s="6" t="n">
         <v>0</v>
@@ -13453,12 +13453,12 @@
       <c r="AA54" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AB54" s="24" t="n">
+      <c r="AB54" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="AC54" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="AD54" s="6" t="n">
         <v>0</v>
       </c>
@@ -13531,8 +13531,8 @@
       <c r="BA54" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="BB54" s="24" t="n">
-        <v>4</v>
+      <c r="BB54" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -13548,11 +13548,11 @@
       <c r="D55" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="E55" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F55" s="6" t="n">
-        <v>0</v>
+      <c r="E55" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0</v>
@@ -13563,29 +13563,29 @@
       <c r="I55" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="J55" s="23" t="n">
+      <c r="J55" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="K55" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="L55" s="6" t="n">
         <v>0</v>
       </c>
       <c r="M55" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="N55" s="22" t="n">
+      <c r="N55" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="O55" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P55" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q55" s="6" t="n">
-        <v>0</v>
+      <c r="P55" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="R55" s="6" t="n">
         <v>0</v>
@@ -13626,11 +13626,11 @@
       <c r="AD55" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AE55" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF55" s="6" t="n">
-        <v>0</v>
+      <c r="AE55" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF55" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AG55" s="6" t="n">
         <v>0</v>
@@ -13641,11 +13641,11 @@
       <c r="AI55" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AJ55" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK55" s="6" t="n">
-        <v>0</v>
+      <c r="AJ55" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK55" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AL55" s="6" t="n">
         <v>0</v>
@@ -13653,17 +13653,17 @@
       <c r="AM55" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AN55" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO55" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP55" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ55" s="6" t="n">
-        <v>0</v>
+      <c r="AN55" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO55" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP55" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ55" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AR55" s="6" t="n">
         <v>0</v>
@@ -13712,17 +13712,17 @@
       <c r="D56" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="E56" s="22" t="n">
+      <c r="E56" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="F56" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H56" s="6" t="n">
-        <v>0</v>
+      <c r="G56" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="I56" s="6" t="n">
         <v>0</v>
@@ -13790,17 +13790,17 @@
       <c r="AD56" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AE56" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF56" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG56" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH56" s="6" t="n">
-        <v>0</v>
+      <c r="AE56" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF56" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG56" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH56" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AI56" s="6" t="n">
         <v>0</v>
@@ -13882,11 +13882,11 @@
       <c r="F57" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="G57" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H57" s="6" t="n">
-        <v>0</v>
+      <c r="G57" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="I57" s="6" t="n">
         <v>0</v>
@@ -13894,23 +13894,23 @@
       <c r="J57" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="K57" s="23" t="n">
+      <c r="K57" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="L57" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M57" s="22" t="n">
+      <c r="M57" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="N57" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O57" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="P57" s="6" t="n">
-        <v>0</v>
+      <c r="O57" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="Q57" s="6" t="n">
         <v>0</v>
@@ -13960,11 +13960,11 @@
       <c r="AF57" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AG57" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH57" s="6" t="n">
-        <v>0</v>
+      <c r="AG57" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH57" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AI57" s="6" t="n">
         <v>0</v>
@@ -13972,23 +13972,23 @@
       <c r="AJ57" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AK57" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL57" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM57" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN57" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO57" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP57" s="6" t="n">
-        <v>0</v>
+      <c r="AK57" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL57" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM57" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN57" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO57" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP57" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AQ57" s="6" t="n">
         <v>0</v>
@@ -14038,8 +14038,8 @@
           <t>1_NoPRwebProject_Thin Watch</t>
         </is>
       </c>
-      <c r="C58" s="6" t="n">
-        <v>0</v>
+      <c r="C58" s="24" t="n">
+        <v>4</v>
       </c>
       <c r="D58" s="6" t="n">
         <v>0</v>
@@ -14113,12 +14113,12 @@
       <c r="AA58" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AB58" s="24" t="n">
+      <c r="AB58" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="AC58" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="AD58" s="6" t="n">
         <v>0</v>
       </c>
@@ -14191,8 +14191,8 @@
       <c r="BA58" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="BB58" s="24" t="n">
-        <v>4</v>
+      <c r="BB58" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -14217,29 +14217,29 @@
       <c r="G59" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="H59" s="23" t="n">
+      <c r="H59" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="I59" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="J59" s="6" t="n">
         <v>0</v>
       </c>
       <c r="K59" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L59" s="22" t="n">
+      <c r="L59" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="M59" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N59" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="O59" s="6" t="n">
-        <v>0</v>
+      <c r="N59" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="P59" s="6" t="n">
         <v>0</v>
@@ -14295,11 +14295,11 @@
       <c r="AG59" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AH59" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI59" s="6" t="n">
-        <v>0</v>
+      <c r="AH59" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI59" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AJ59" s="6" t="n">
         <v>0</v>
@@ -14307,17 +14307,17 @@
       <c r="AK59" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AL59" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM59" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN59" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO59" s="6" t="n">
-        <v>0</v>
+      <c r="AL59" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM59" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN59" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO59" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AP59" s="6" t="n">
         <v>0</v>
@@ -14381,29 +14381,29 @@
       <c r="G60" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="H60" s="23" t="n">
+      <c r="H60" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="I60" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="J60" s="6" t="n">
         <v>0</v>
       </c>
       <c r="K60" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L60" s="22" t="n">
+      <c r="L60" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="M60" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N60" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="O60" s="6" t="n">
-        <v>0</v>
+      <c r="N60" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="P60" s="6" t="n">
         <v>0</v>
@@ -14459,11 +14459,11 @@
       <c r="AG60" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AH60" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI60" s="6" t="n">
-        <v>0</v>
+      <c r="AH60" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI60" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AJ60" s="6" t="n">
         <v>0</v>
@@ -14471,17 +14471,17 @@
       <c r="AK60" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AL60" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM60" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN60" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO60" s="6" t="n">
-        <v>0</v>
+      <c r="AL60" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM60" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN60" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO60" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AP60" s="6" t="n">
         <v>0</v>
@@ -14545,29 +14545,29 @@
       <c r="G61" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="H61" s="23" t="n">
+      <c r="H61" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="I61" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="J61" s="6" t="n">
         <v>0</v>
       </c>
       <c r="K61" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L61" s="22" t="n">
+      <c r="L61" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="M61" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N61" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="O61" s="6" t="n">
-        <v>0</v>
+      <c r="N61" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="P61" s="6" t="n">
         <v>0</v>
@@ -14623,11 +14623,11 @@
       <c r="AG61" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AH61" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI61" s="6" t="n">
-        <v>0</v>
+      <c r="AH61" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI61" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AJ61" s="6" t="n">
         <v>0</v>
@@ -14635,17 +14635,17 @@
       <c r="AK61" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AL61" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM61" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN61" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO61" s="6" t="n">
-        <v>0</v>
+      <c r="AL61" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM61" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN61" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO61" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AP61" s="6" t="n">
         <v>0</v>
@@ -14703,35 +14703,35 @@
       <c r="E62" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F62" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G62" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H62" s="23" t="n">
+      <c r="F62" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H62" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="I62" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="J62" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="K62" s="22" t="n">
+      <c r="K62" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="L62" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="M62" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="N62" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="O62" s="6" t="n">
-        <v>0</v>
+      <c r="N62" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="P62" s="6" t="n">
         <v>0</v>
@@ -14781,35 +14781,35 @@
       <c r="AE62" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AF62" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG62" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH62" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI62" s="6" t="n">
-        <v>0</v>
+      <c r="AF62" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG62" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH62" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI62" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AJ62" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AK62" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL62" s="6" t="n">
-        <v>0</v>
+      <c r="AK62" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL62" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AM62" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AN62" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO62" s="6" t="n">
-        <v>0</v>
+      <c r="AN62" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO62" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AP62" s="6" t="n">
         <v>0</v>
@@ -14858,32 +14858,32 @@
           <t>EPIX PRO (Gen 2) 42mm</t>
         </is>
       </c>
-      <c r="C63" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D63" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" s="23" t="n">
+      <c r="C63" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E63" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="F63" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="G63" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="H63" s="22" t="n">
+      <c r="H63" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="I63" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="K63" s="6" t="n">
-        <v>0</v>
+      <c r="J63" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="L63" s="6" t="n">
         <v>0</v>
@@ -14936,32 +14936,32 @@
       <c r="AB63" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AC63" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD63" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE63" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF63" s="6" t="n">
-        <v>0</v>
+      <c r="AC63" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE63" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF63" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AG63" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AH63" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI63" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ63" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK63" s="6" t="n">
-        <v>0</v>
+      <c r="AH63" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI63" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ63" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK63" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AL63" s="6" t="n">
         <v>0</v>
@@ -15022,26 +15022,26 @@
           <t>Forerunner 965</t>
         </is>
       </c>
-      <c r="C64" s="6" t="n">
-        <v>0</v>
+      <c r="C64" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="D64" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="E64" s="23" t="n">
+      <c r="E64" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="F64" s="22" t="n">
+      <c r="G64" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="G64" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H64" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" s="6" t="n">
-        <v>0</v>
+      <c r="H64" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="J64" s="6" t="n">
         <v>0</v>
@@ -15097,29 +15097,29 @@
       <c r="AA64" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AB64" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC64" s="6" t="n">
-        <v>0</v>
+      <c r="AB64" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AD64" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AE64" s="21" t="n">
-        <v>1</v>
+      <c r="AE64" s="6" t="n">
+        <v>0</v>
       </c>
       <c r="AF64" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="AG64" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH64" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI64" s="6" t="n">
-        <v>0</v>
+      <c r="AG64" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH64" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI64" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AJ64" s="6" t="n">
         <v>0</v>
@@ -15175,8 +15175,8 @@
       <c r="BA64" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="BB64" s="21" t="n">
-        <v>1</v>
+      <c r="BB64" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -15186,8 +15186,8 @@
           <t>GPSMAP 68</t>
         </is>
       </c>
-      <c r="C65" s="6" t="n">
-        <v>0</v>
+      <c r="C65" s="24" t="n">
+        <v>4</v>
       </c>
       <c r="D65" s="6" t="n">
         <v>0</v>
@@ -15261,12 +15261,12 @@
       <c r="AA65" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AB65" s="24" t="n">
+      <c r="AB65" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="AC65" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="AD65" s="6" t="n">
         <v>0</v>
       </c>
@@ -15339,8 +15339,8 @@
       <c r="BA65" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="BB65" s="24" t="n">
-        <v>4</v>
+      <c r="BB65" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -15359,26 +15359,26 @@
       <c r="E66" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F66" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G66" s="23" t="n">
+      <c r="F66" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H66" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="H66" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" s="22" t="n">
+      <c r="I66" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="J66" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L66" s="6" t="n">
-        <v>0</v>
+      <c r="K66" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="M66" s="6" t="n">
         <v>0</v>
@@ -15437,26 +15437,26 @@
       <c r="AE66" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AF66" s="21" t="n">
-        <v>1</v>
+      <c r="AF66" s="6" t="n">
+        <v>0</v>
       </c>
       <c r="AG66" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="AH66" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI66" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ66" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK66" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL66" s="6" t="n">
-        <v>0</v>
+      <c r="AH66" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI66" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ66" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK66" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL66" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AM66" s="6" t="n">
         <v>0</v>
@@ -15514,17 +15514,17 @@
           <t>Instinct Hybrid Analog/Digital(Ripley)</t>
         </is>
       </c>
-      <c r="C67" s="22" t="n">
+      <c r="C67" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="D67" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E67" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F67" s="6" t="n">
-        <v>0</v>
+      <c r="E67" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="G67" s="6" t="n">
         <v>0</v>
@@ -15589,20 +15589,20 @@
       <c r="AA67" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AB67" s="21" t="n">
-        <v>1</v>
+      <c r="AB67" s="6" t="n">
+        <v>0</v>
       </c>
       <c r="AC67" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="AD67" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE67" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF67" s="6" t="n">
-        <v>0</v>
+      <c r="AD67" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE67" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF67" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AG67" s="6" t="n">
         <v>0</v>
@@ -15667,8 +15667,8 @@
       <c r="BA67" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="BB67" s="21" t="n">
-        <v>1</v>
+      <c r="BB67" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -15678,8 +15678,8 @@
           <t>vivomove Trend (previously "4")</t>
         </is>
       </c>
-      <c r="C68" s="6" t="n">
-        <v>0</v>
+      <c r="C68" s="23" t="n">
+        <v>2</v>
       </c>
       <c r="D68" s="6" t="n">
         <v>0</v>
@@ -15687,11 +15687,11 @@
       <c r="E68" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F68" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G68" s="6" t="n">
-        <v>0</v>
+      <c r="F68" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="H68" s="6" t="n">
         <v>0</v>
@@ -15753,23 +15753,23 @@
       <c r="AA68" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AB68" s="23" t="n">
+      <c r="AB68" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="AC68" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="AD68" s="6" t="n">
         <v>0</v>
       </c>
       <c r="AE68" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AF68" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG68" s="6" t="n">
-        <v>0</v>
+      <c r="AF68" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG68" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AH68" s="6" t="n">
         <v>0</v>
@@ -15831,8 +15831,8 @@
       <c r="BA68" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="BB68" s="23" t="n">
-        <v>2</v>
+      <c r="BB68" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -15849,12 +15849,12 @@
       <c r="C69" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D69" s="23" t="n">
+      <c r="D69" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="E69" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="F69" s="6" t="n">
         <v>0</v>
       </c>
@@ -15864,23 +15864,23 @@
       <c r="H69" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="I69" s="22" t="n">
+      <c r="I69" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="J69" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="K69" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L69" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="M69" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" s="6" t="n">
-        <v>0</v>
+      <c r="M69" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="O69" s="6" t="n">
         <v>0</v>
@@ -15927,11 +15927,11 @@
       <c r="AC69" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AD69" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE69" s="6" t="n">
-        <v>0</v>
+      <c r="AD69" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AF69" s="6" t="n">
         <v>0</v>
@@ -15942,11 +15942,11 @@
       <c r="AH69" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AI69" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ69" s="6" t="n">
-        <v>0</v>
+      <c r="AI69" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ69" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AK69" s="6" t="n">
         <v>0</v>
@@ -15954,11 +15954,11 @@
       <c r="AL69" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AM69" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN69" s="6" t="n">
-        <v>0</v>
+      <c r="AM69" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN69" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AO69" s="6" t="n">
         <v>0</v>
@@ -16013,12 +16013,12 @@
       <c r="C70" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D70" s="23" t="n">
+      <c r="D70" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="E70" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="F70" s="6" t="n">
         <v>0</v>
       </c>
@@ -16028,23 +16028,23 @@
       <c r="H70" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="I70" s="22" t="n">
+      <c r="I70" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="J70" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="K70" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L70" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="M70" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" s="6" t="n">
-        <v>0</v>
+      <c r="M70" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="O70" s="6" t="n">
         <v>0</v>
@@ -16091,11 +16091,11 @@
       <c r="AC70" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AD70" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE70" s="6" t="n">
-        <v>0</v>
+      <c r="AD70" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AF70" s="6" t="n">
         <v>0</v>
@@ -16106,11 +16106,11 @@
       <c r="AH70" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AI70" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ70" s="6" t="n">
-        <v>0</v>
+      <c r="AI70" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ70" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AK70" s="6" t="n">
         <v>0</v>
@@ -16118,11 +16118,11 @@
       <c r="AL70" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AM70" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN70" s="6" t="n">
-        <v>0</v>
+      <c r="AM70" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN70" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AO70" s="6" t="n">
         <v>0</v>
@@ -16192,29 +16192,29 @@
       <c r="H71" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="I71" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" s="6" t="n">
-        <v>0</v>
+      <c r="I71" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="K71" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L71" s="23" t="n">
+      <c r="L71" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="M71" s="22" t="n">
+      <c r="N71" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="N71" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O71" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="P71" s="6" t="n">
-        <v>0</v>
+      <c r="O71" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P71" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="Q71" s="6" t="n">
         <v>0</v>
@@ -16270,29 +16270,29 @@
       <c r="AH71" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AI71" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ71" s="6" t="n">
-        <v>0</v>
+      <c r="AI71" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ71" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AK71" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AL71" s="21" t="n">
-        <v>1</v>
+      <c r="AL71" s="6" t="n">
+        <v>0</v>
       </c>
       <c r="AM71" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="AN71" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO71" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP71" s="6" t="n">
-        <v>0</v>
+      <c r="AN71" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO71" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP71" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AQ71" s="6" t="n">
         <v>0</v>
@@ -16341,18 +16341,18 @@
       <c r="C72" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="D72" s="6" t="n">
-        <v>0</v>
+      <c r="D72" s="23" t="n">
+        <v>2</v>
       </c>
       <c r="E72" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F72" s="22" t="n">
+      <c r="F72" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="G72" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="H72" s="6" t="n">
         <v>0</v>
       </c>
@@ -16413,23 +16413,23 @@
       <c r="AA72" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AB72" s="23" t="n">
+      <c r="AB72" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC72" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="AC72" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD72" s="6" t="n">
-        <v>0</v>
+      <c r="AD72" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AE72" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AF72" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG72" s="6" t="n">
-        <v>0</v>
+      <c r="AF72" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG72" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AH72" s="6" t="n">
         <v>0</v>
@@ -16491,8 +16491,8 @@
       <c r="BA72" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="BB72" s="23" t="n">
-        <v>2</v>
+      <c r="BB72" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -16502,11 +16502,11 @@
           <t>Tire Temp Sensor</t>
         </is>
       </c>
-      <c r="C73" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D73" s="6" t="n">
-        <v>0</v>
+      <c r="C73" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="D73" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="E73" s="6" t="n">
         <v>0</v>
@@ -16526,11 +16526,11 @@
       <c r="J73" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="K73" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L73" s="6" t="n">
-        <v>0</v>
+      <c r="K73" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="M73" s="6" t="n">
         <v>0</v>
@@ -16577,14 +16577,14 @@
       <c r="AA73" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AB73" s="23" t="n">
+      <c r="AB73" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="AC73" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD73" s="6" t="n">
-        <v>0</v>
+      <c r="AD73" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AE73" s="6" t="n">
         <v>0</v>
@@ -16604,11 +16604,11 @@
       <c r="AJ73" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AK73" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL73" s="6" t="n">
-        <v>0</v>
+      <c r="AK73" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL73" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AM73" s="6" t="n">
         <v>0</v>
@@ -16655,8 +16655,8 @@
       <c r="BA73" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="BB73" s="23" t="n">
-        <v>2</v>
+      <c r="BB73" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -16666,8 +16666,8 @@
           <t>Tread 8" OEM w/ CAN</t>
         </is>
       </c>
-      <c r="C74" s="6" t="n">
-        <v>0</v>
+      <c r="C74" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="D74" s="6" t="n">
         <v>0</v>
@@ -16681,11 +16681,11 @@
       <c r="G74" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="H74" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" s="6" t="n">
-        <v>0</v>
+      <c r="H74" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="J74" s="6" t="n">
         <v>0</v>
@@ -16741,11 +16741,11 @@
       <c r="AA74" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AB74" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC74" s="6" t="n">
-        <v>0</v>
+      <c r="AB74" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AD74" s="6" t="n">
         <v>0</v>
@@ -16759,11 +16759,11 @@
       <c r="AG74" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AH74" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI74" s="6" t="n">
-        <v>0</v>
+      <c r="AH74" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI74" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AJ74" s="6" t="n">
         <v>0</v>
@@ -16819,8 +16819,8 @@
       <c r="BA74" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="BB74" s="21" t="n">
-        <v>1</v>
+      <c r="BB74" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -16830,8 +16830,8 @@
           <t>dezl headset (2nd Gen)</t>
         </is>
       </c>
-      <c r="C75" s="6" t="n">
-        <v>0</v>
+      <c r="C75" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="D75" s="6" t="n">
         <v>0</v>
@@ -16854,11 +16854,11 @@
       <c r="J75" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="K75" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L75" s="6" t="n">
-        <v>0</v>
+      <c r="K75" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="M75" s="6" t="n">
         <v>0</v>
@@ -16878,17 +16878,17 @@
       <c r="R75" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="S75" s="22" t="n">
+      <c r="S75" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T75" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="T75" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U75" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="V75" s="6" t="n">
-        <v>0</v>
+      <c r="U75" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V75" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="W75" s="6" t="n">
         <v>0</v>
@@ -16905,11 +16905,11 @@
       <c r="AA75" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AB75" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC75" s="6" t="n">
-        <v>0</v>
+      <c r="AB75" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AD75" s="6" t="n">
         <v>0</v>
@@ -16932,11 +16932,11 @@
       <c r="AJ75" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AK75" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL75" s="6" t="n">
-        <v>0</v>
+      <c r="AK75" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL75" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AM75" s="6" t="n">
         <v>0</v>
@@ -16956,17 +16956,17 @@
       <c r="AR75" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AS75" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT75" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU75" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV75" s="6" t="n">
-        <v>0</v>
+      <c r="AS75" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT75" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU75" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV75" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AW75" s="6" t="n">
         <v>0</v>
@@ -16983,8 +16983,8 @@
       <c r="BA75" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="BB75" s="21" t="n">
-        <v>1</v>
+      <c r="BB75" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -17000,26 +17000,26 @@
       <c r="D76" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="E76" s="23" t="n">
+      <c r="E76" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="F76" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G76" s="22" t="n">
+      <c r="G76" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="H76" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="J76" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="K76" s="6" t="n">
-        <v>0</v>
+      <c r="J76" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="L76" s="6" t="n">
         <v>0</v>
@@ -17078,26 +17078,26 @@
       <c r="AD76" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AE76" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF76" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG76" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH76" s="6" t="n">
-        <v>0</v>
+      <c r="AE76" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF76" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG76" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH76" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AI76" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AJ76" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK76" s="6" t="n">
-        <v>0</v>
+      <c r="AJ76" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK76" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AL76" s="6" t="n">
         <v>0</v>
@@ -17162,8 +17162,8 @@
           <t>1_NoPRwebProject_Marq Hybrid</t>
         </is>
       </c>
-      <c r="C77" s="6" t="n">
-        <v>0</v>
+      <c r="C77" s="24" t="n">
+        <v>4</v>
       </c>
       <c r="D77" s="6" t="n">
         <v>0</v>
@@ -17237,12 +17237,12 @@
       <c r="AA77" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AB77" s="24" t="n">
+      <c r="AB77" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="AC77" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="AD77" s="6" t="n">
         <v>0</v>
       </c>
@@ -17315,8 +17315,8 @@
       <c r="BA77" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="BB77" s="24" t="n">
-        <v>4</v>
+      <c r="BB77" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -17338,23 +17338,23 @@
       <c r="F78" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="G78" s="23" t="n">
+      <c r="G78" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="H78" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="J78" s="22" t="n">
+      <c r="J78" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="K78" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L78" s="6" t="n">
-        <v>0</v>
+      <c r="L78" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="M78" s="6" t="n">
         <v>0</v>
@@ -17416,23 +17416,23 @@
       <c r="AF78" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AG78" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH78" s="6" t="n">
-        <v>0</v>
+      <c r="AG78" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH78" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AI78" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AJ78" s="21" t="n">
-        <v>1</v>
+      <c r="AJ78" s="6" t="n">
+        <v>0</v>
       </c>
       <c r="AK78" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="AL78" s="6" t="n">
-        <v>0</v>
+      <c r="AL78" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AM78" s="6" t="n">
         <v>0</v>
@@ -17502,23 +17502,23 @@
       <c r="F79" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="G79" s="23" t="n">
+      <c r="G79" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="H79" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="J79" s="22" t="n">
+      <c r="J79" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="K79" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L79" s="6" t="n">
-        <v>0</v>
+      <c r="L79" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="M79" s="6" t="n">
         <v>0</v>
@@ -17580,23 +17580,23 @@
       <c r="AF79" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AG79" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH79" s="6" t="n">
-        <v>0</v>
+      <c r="AG79" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH79" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AI79" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AJ79" s="21" t="n">
-        <v>1</v>
+      <c r="AJ79" s="6" t="n">
+        <v>0</v>
       </c>
       <c r="AK79" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="AL79" s="6" t="n">
-        <v>0</v>
+      <c r="AL79" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AM79" s="6" t="n">
         <v>0</v>
@@ -17666,11 +17666,11 @@
       <c r="F80" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="G80" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H80" s="6" t="n">
-        <v>0</v>
+      <c r="G80" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="I80" s="6" t="n">
         <v>0</v>
@@ -17681,26 +17681,26 @@
       <c r="K80" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L80" s="23" t="n">
+      <c r="L80" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="M80" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="N80" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="O80" s="22" t="n">
+      <c r="O80" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P80" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="P80" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q80" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="R80" s="6" t="n">
-        <v>0</v>
+      <c r="Q80" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R80" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="S80" s="6" t="n">
         <v>0</v>
@@ -17744,11 +17744,11 @@
       <c r="AF80" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AG80" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH80" s="6" t="n">
-        <v>0</v>
+      <c r="AG80" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH80" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AI80" s="6" t="n">
         <v>0</v>
@@ -17759,26 +17759,26 @@
       <c r="AK80" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AL80" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM80" s="6" t="n">
-        <v>0</v>
+      <c r="AL80" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM80" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AN80" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AO80" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP80" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ80" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR80" s="6" t="n">
-        <v>0</v>
+      <c r="AO80" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP80" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ80" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR80" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AS80" s="6" t="n">
         <v>0</v>
@@ -17827,11 +17827,11 @@
       <c r="E81" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F81" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G81" s="6" t="n">
-        <v>0</v>
+      <c r="F81" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="H81" s="6" t="n">
         <v>0</v>
@@ -17842,26 +17842,26 @@
       <c r="J81" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="K81" s="23" t="n">
+      <c r="K81" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="L81" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="M81" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="N81" s="22" t="n">
+      <c r="N81" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="O81" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P81" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q81" s="6" t="n">
-        <v>0</v>
+      <c r="P81" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="R81" s="6" t="n">
         <v>0</v>
@@ -17905,11 +17905,11 @@
       <c r="AE81" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AF81" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG81" s="6" t="n">
-        <v>0</v>
+      <c r="AF81" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG81" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AH81" s="6" t="n">
         <v>0</v>
@@ -17920,26 +17920,26 @@
       <c r="AJ81" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AK81" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL81" s="6" t="n">
-        <v>0</v>
+      <c r="AK81" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL81" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AM81" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AN81" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO81" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP81" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ81" s="6" t="n">
-        <v>0</v>
+      <c r="AN81" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO81" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP81" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ81" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AR81" s="6" t="n">
         <v>0</v>
@@ -17985,29 +17985,29 @@
       <c r="C82" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D82" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E82" s="23" t="n">
+      <c r="D82" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F82" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="F82" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="G82" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="H82" s="22" t="n">
+      <c r="H82" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="I82" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="K82" s="6" t="n">
-        <v>0</v>
+      <c r="J82" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="L82" s="6" t="n">
         <v>0</v>
@@ -18063,29 +18063,29 @@
       <c r="AC82" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AD82" s="21" t="n">
-        <v>1</v>
+      <c r="AD82" s="6" t="n">
+        <v>0</v>
       </c>
       <c r="AE82" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="AF82" s="6" t="n">
-        <v>0</v>
+      <c r="AF82" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AG82" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AH82" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI82" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ82" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK82" s="6" t="n">
-        <v>0</v>
+      <c r="AH82" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI82" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ82" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK82" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AL82" s="6" t="n">
         <v>0</v>
@@ -18152,26 +18152,26 @@
       <c r="D83" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="E83" s="23" t="n">
+      <c r="E83" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="F83" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="G83" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="H83" s="22" t="n">
+      <c r="H83" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="I83" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="K83" s="6" t="n">
-        <v>0</v>
+      <c r="J83" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="L83" s="6" t="n">
         <v>0</v>
@@ -18230,26 +18230,26 @@
       <c r="AD83" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AE83" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF83" s="6" t="n">
-        <v>0</v>
+      <c r="AE83" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF83" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AG83" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AH83" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI83" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ83" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK83" s="6" t="n">
-        <v>0</v>
+      <c r="AH83" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI83" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ83" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK83" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AL83" s="6" t="n">
         <v>0</v>
@@ -18328,11 +18328,11 @@
       <c r="H84" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="I84" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" s="6" t="n">
-        <v>0</v>
+      <c r="I84" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="K84" s="6" t="n">
         <v>0</v>
@@ -18343,26 +18343,26 @@
       <c r="M84" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="N84" s="23" t="n">
+      <c r="N84" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="O84" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="P84" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="Q84" s="22" t="n">
+      <c r="Q84" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R84" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="R84" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S84" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="T84" s="6" t="n">
-        <v>0</v>
+      <c r="S84" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T84" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="U84" s="6" t="n">
         <v>0</v>
@@ -18406,11 +18406,11 @@
       <c r="AH84" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AI84" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ84" s="6" t="n">
-        <v>0</v>
+      <c r="AI84" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ84" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AK84" s="6" t="n">
         <v>0</v>
@@ -18421,26 +18421,26 @@
       <c r="AM84" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AN84" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO84" s="6" t="n">
-        <v>0</v>
+      <c r="AN84" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO84" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AP84" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AQ84" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR84" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS84" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT84" s="6" t="n">
-        <v>0</v>
+      <c r="AQ84" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR84" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS84" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT84" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AU84" s="6" t="n">
         <v>0</v>
@@ -18474,12 +18474,12 @@
           <t>MARQ Carbon</t>
         </is>
       </c>
-      <c r="C85" s="23" t="n">
+      <c r="C85" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D85" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="D85" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="E85" s="6" t="n">
         <v>0</v>
       </c>
@@ -18549,14 +18549,14 @@
       <c r="AA85" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AB85" s="22" t="n">
+      <c r="AB85" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="AC85" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD85" s="6" t="n">
-        <v>0</v>
+      <c r="AD85" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AE85" s="6" t="n">
         <v>0</v>
@@ -18627,8 +18627,8 @@
       <c r="BA85" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="BB85" s="22" t="n">
-        <v>3</v>
+      <c r="BB85" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -18638,17 +18638,17 @@
           <t>Marq (Gen 2)</t>
         </is>
       </c>
-      <c r="C86" s="9" t="n">
+      <c r="C86" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D86" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="D86" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E86" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F86" s="6" t="n">
-        <v>0</v>
+      <c r="E86" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="G86" s="6" t="n">
         <v>0</v>
@@ -18716,17 +18716,17 @@
       <c r="AB86" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AC86" s="23" t="n">
+      <c r="AC86" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="AD86" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE86" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF86" s="6" t="n">
-        <v>0</v>
+      <c r="AE86" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF86" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AG86" s="6" t="n">
         <v>0</v>
@@ -18802,8 +18802,8 @@
           <t>Venu 3</t>
         </is>
       </c>
-      <c r="C87" s="6" t="n">
-        <v>0</v>
+      <c r="C87" s="23" t="n">
+        <v>2</v>
       </c>
       <c r="D87" s="6" t="n">
         <v>0</v>
@@ -18814,12 +18814,12 @@
       <c r="F87" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="G87" s="23" t="n">
+      <c r="G87" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="H87" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" s="6" t="n">
         <v>0</v>
       </c>
@@ -18829,11 +18829,11 @@
       <c r="K87" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L87" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" s="6" t="n">
-        <v>0</v>
+      <c r="L87" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="N87" s="6" t="n">
         <v>0</v>
@@ -18877,12 +18877,12 @@
       <c r="AA87" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AB87" s="23" t="n">
+      <c r="AB87" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="AC87" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="AD87" s="6" t="n">
         <v>0</v>
       </c>
@@ -18892,11 +18892,11 @@
       <c r="AF87" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AG87" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH87" s="6" t="n">
-        <v>0</v>
+      <c r="AG87" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH87" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AI87" s="6" t="n">
         <v>0</v>
@@ -18907,11 +18907,11 @@
       <c r="AK87" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AL87" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM87" s="6" t="n">
-        <v>0</v>
+      <c r="AL87" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM87" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AN87" s="6" t="n">
         <v>0</v>
@@ -18955,8 +18955,8 @@
       <c r="BA87" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="BB87" s="23" t="n">
-        <v>2</v>
+      <c r="BB87" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -18969,29 +18969,29 @@
       <c r="C88" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D88" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E88" s="23" t="n">
+      <c r="D88" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F88" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="F88" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="G88" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H88" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="I88" s="22" t="n">
+      <c r="I88" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="J88" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="K88" s="6" t="n">
-        <v>0</v>
+      <c r="K88" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="L88" s="6" t="n">
         <v>0</v>
@@ -19047,14 +19047,14 @@
       <c r="AC88" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AD88" s="21" t="n">
-        <v>1</v>
+      <c r="AD88" s="6" t="n">
+        <v>0</v>
       </c>
       <c r="AE88" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="AF88" s="6" t="n">
-        <v>0</v>
+      <c r="AF88" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AG88" s="6" t="n">
         <v>0</v>
@@ -19062,14 +19062,14 @@
       <c r="AH88" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AI88" s="21" t="n">
-        <v>1</v>
+      <c r="AI88" s="6" t="n">
+        <v>0</v>
       </c>
       <c r="AJ88" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="AK88" s="6" t="n">
-        <v>0</v>
+      <c r="AK88" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AL88" s="6" t="n">
         <v>0</v>
@@ -19134,8 +19134,8 @@
           <t>1_NoPRwebProject_Flush Mount Stainless Steel Camera</t>
         </is>
       </c>
-      <c r="C89" s="6" t="n">
-        <v>0</v>
+      <c r="C89" s="24" t="n">
+        <v>4</v>
       </c>
       <c r="D89" s="6" t="n">
         <v>0</v>
@@ -19209,12 +19209,12 @@
       <c r="AA89" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AB89" s="24" t="n">
+      <c r="AB89" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="AC89" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="AD89" s="6" t="n">
         <v>0</v>
       </c>
@@ -19287,8 +19287,8 @@
       <c r="BA89" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="BB89" s="24" t="n">
-        <v>4</v>
+      <c r="BB89" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -19298,8 +19298,8 @@
           <t>1_NoPRwebProject_Lily Athlete</t>
         </is>
       </c>
-      <c r="C90" s="6" t="n">
-        <v>0</v>
+      <c r="C90" s="24" t="n">
+        <v>4</v>
       </c>
       <c r="D90" s="6" t="n">
         <v>0</v>
@@ -19373,12 +19373,12 @@
       <c r="AA90" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AB90" s="24" t="n">
+      <c r="AB90" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC90" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="AC90" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="AD90" s="6" t="n">
         <v>0</v>
       </c>
@@ -19451,8 +19451,8 @@
       <c r="BA90" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="BB90" s="24" t="n">
-        <v>4</v>
+      <c r="BB90" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -19462,8 +19462,8 @@
           <t>1_NoPRwebProject_inReach Messenger 2</t>
         </is>
       </c>
-      <c r="C91" s="6" t="n">
-        <v>0</v>
+      <c r="C91" s="24" t="n">
+        <v>4</v>
       </c>
       <c r="D91" s="6" t="n">
         <v>0</v>
@@ -19537,12 +19537,12 @@
       <c r="AA91" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AB91" s="24" t="n">
+      <c r="AB91" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="AC91" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="AD91" s="6" t="n">
         <v>0</v>
       </c>
@@ -19615,8 +19615,8 @@
       <c r="BA91" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="BB91" s="24" t="n">
-        <v>4</v>
+      <c r="BB91" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -19644,26 +19644,26 @@
       <c r="H92" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="I92" s="23" t="n">
+      <c r="I92" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="J92" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="K92" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L92" s="22" t="n">
+      <c r="L92" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="M92" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N92" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="O92" s="6" t="n">
-        <v>0</v>
+      <c r="N92" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O92" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="P92" s="6" t="n">
         <v>0</v>
@@ -19722,26 +19722,26 @@
       <c r="AH92" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AI92" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ92" s="6" t="n">
-        <v>0</v>
+      <c r="AI92" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ92" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AK92" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AL92" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM92" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN92" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO92" s="6" t="n">
-        <v>0</v>
+      <c r="AL92" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM92" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN92" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO92" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AP92" s="6" t="n">
         <v>0</v>
@@ -19799,11 +19799,11 @@
       <c r="E93" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F93" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G93" s="6" t="n">
-        <v>0</v>
+      <c r="F93" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="H93" s="6" t="n">
         <v>0</v>
@@ -19811,20 +19811,20 @@
       <c r="I93" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="J93" s="23" t="n">
+      <c r="J93" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="K93" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L93" s="22" t="n">
+      <c r="L93" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="M93" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" s="6" t="n">
-        <v>0</v>
+      <c r="N93" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="O93" s="6" t="n">
         <v>0</v>
@@ -19877,11 +19877,11 @@
       <c r="AE93" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AF93" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG93" s="6" t="n">
-        <v>0</v>
+      <c r="AF93" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG93" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AH93" s="6" t="n">
         <v>0</v>
@@ -19889,20 +19889,20 @@
       <c r="AI93" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AJ93" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK93" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL93" s="21" t="n">
-        <v>1</v>
+      <c r="AJ93" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK93" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL93" s="6" t="n">
+        <v>0</v>
       </c>
       <c r="AM93" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="AN93" s="6" t="n">
-        <v>0</v>
+      <c r="AN93" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AO93" s="6" t="n">
         <v>0</v>
@@ -19975,11 +19975,11 @@
       <c r="I94" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="J94" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="K94" s="6" t="n">
-        <v>0</v>
+      <c r="J94" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="L94" s="6" t="n">
         <v>0</v>
@@ -19990,26 +19990,26 @@
       <c r="N94" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="O94" s="23" t="n">
+      <c r="O94" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P94" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="P94" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="Q94" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="R94" s="22" t="n">
+      <c r="R94" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S94" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="S94" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T94" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="U94" s="6" t="n">
-        <v>0</v>
+      <c r="T94" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U94" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="V94" s="6" t="n">
         <v>0</v>
@@ -20053,11 +20053,11 @@
       <c r="AI94" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AJ94" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK94" s="6" t="n">
-        <v>0</v>
+      <c r="AJ94" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK94" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AL94" s="6" t="n">
         <v>0</v>
@@ -20068,26 +20068,26 @@
       <c r="AN94" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AO94" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP94" s="6" t="n">
-        <v>0</v>
+      <c r="AO94" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP94" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AQ94" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AR94" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS94" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT94" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU94" s="6" t="n">
-        <v>0</v>
+      <c r="AR94" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS94" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT94" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU94" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AV94" s="6" t="n">
         <v>0</v>
@@ -20124,26 +20124,26 @@
       <c r="D95" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="E95" s="23" t="n">
+      <c r="E95" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F95" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="F95" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="G95" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="H95" s="22" t="n">
+      <c r="H95" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="I95" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="K95" s="6" t="n">
-        <v>0</v>
+      <c r="J95" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="L95" s="6" t="n">
         <v>0</v>
@@ -20202,26 +20202,26 @@
       <c r="AD95" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AE95" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF95" s="6" t="n">
-        <v>0</v>
+      <c r="AE95" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF95" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AG95" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AH95" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI95" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ95" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK95" s="6" t="n">
-        <v>0</v>
+      <c r="AH95" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI95" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ95" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK95" s="21" t="n">
+        <v>1</v>
       </c>
       <c r="AL95" s="6" t="n">
         <v>0</v>
@@ -20282,8 +20282,8 @@
           <t>Product - 1.3\" GTR/GNC</t>
         </is>
       </c>
-      <c r="C96" s="6" t="n">
-        <v>0</v>
+      <c r="C96" s="24" t="n">
+        <v>4</v>
       </c>
       <c r="D96" s="6" t="n">
         <v>0</v>
@@ -20357,12 +20357,12 @@
       <c r="AA96" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AB96" s="24" t="n">
+      <c r="AB96" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="AC96" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="AD96" s="6" t="n">
         <v>0</v>
       </c>
@@ -20435,8 +20435,8 @@
       <c r="BA96" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="BB96" s="24" t="n">
-        <v>4</v>
+      <c r="BB96" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -20446,8 +20446,8 @@
           <t>Product - GDU147XW</t>
         </is>
       </c>
-      <c r="C97" s="6" t="n">
-        <v>0</v>
+      <c r="C97" s="24" t="n">
+        <v>4</v>
       </c>
       <c r="D97" s="6" t="n">
         <v>0</v>
@@ -20521,12 +20521,12 @@
       <c r="AA97" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AB97" s="24" t="n">
+      <c r="AB97" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="AC97" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="AD97" s="6" t="n">
         <v>0</v>
       </c>
@@ -20599,8 +20599,8 @@
       <c r="BA97" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="BB97" s="24" t="n">
-        <v>4</v>
+      <c r="BB97" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -20610,8 +20610,8 @@
           <t>Product - GDU77XW</t>
         </is>
       </c>
-      <c r="C98" s="6" t="n">
-        <v>0</v>
+      <c r="C98" s="24" t="n">
+        <v>4</v>
       </c>
       <c r="D98" s="6" t="n">
         <v>0</v>
@@ -20685,12 +20685,12 @@
       <c r="AA98" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="AB98" s="24" t="n">
+      <c r="AB98" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="AC98" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="AD98" s="6" t="n">
         <v>0</v>
       </c>
@@ -20763,8 +20763,8 @@
       <c r="BA98" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="BB98" s="24" t="n">
-        <v>4</v>
+      <c r="BB98" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/GMLA loading analysis/(Output) Data.xlsx
+++ b/GMLA loading analysis/(Output) Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangcooper\Documents\Python\Python\GMLA loading analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B86B11-BE5A-4D3B-86FB-90B44D6C7705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E834EC89-55BC-4CDF-A08F-5BA8F644F34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16140" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -852,8 +852,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1124,12 +1124,12 @@
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3941,6 +3941,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -4692,69 +4696,72 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AX105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="87.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="0" hidden="1" customWidth="1"/>
+    <col min="12" max="50" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35" t="s">
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="35"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="35"/>
-      <c r="AO1" s="35"/>
-      <c r="AP1" s="35"/>
-      <c r="AQ1" s="35"/>
-      <c r="AR1" s="35"/>
-      <c r="AS1" s="35"/>
-      <c r="AT1" s="35"/>
-      <c r="AU1" s="35"/>
-      <c r="AV1" s="35"/>
-      <c r="AW1" s="35"/>
-      <c r="AX1" s="35"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="36"/>
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="36"/>
+      <c r="AO1" s="36"/>
+      <c r="AP1" s="36"/>
+      <c r="AQ1" s="36"/>
+      <c r="AR1" s="36"/>
+      <c r="AS1" s="36"/>
+      <c r="AT1" s="36"/>
+      <c r="AU1" s="36"/>
+      <c r="AV1" s="36"/>
+      <c r="AW1" s="36"/>
+      <c r="AX1" s="36"/>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
@@ -4914,10 +4921,10 @@
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="35" t="s">
         <v>38</v>
       </c>
       <c r="C4" s="2">
@@ -5066,8 +5073,8 @@
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A5" s="35"/>
-      <c r="B5" s="36" t="s">
+      <c r="A5" s="36"/>
+      <c r="B5" s="35" t="s">
         <v>39</v>
       </c>
       <c r="C5" s="2">
@@ -5216,8 +5223,8 @@
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A6" s="35"/>
-      <c r="B6" s="36" t="s">
+      <c r="A6" s="36"/>
+      <c r="B6" s="35" t="s">
         <v>40</v>
       </c>
       <c r="C6" s="2">
@@ -5366,7 +5373,7 @@
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="36" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -5518,8 +5525,8 @@
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A8" s="35"/>
-      <c r="B8" s="36" t="s">
+      <c r="A8" s="36"/>
+      <c r="B8" s="35" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="2">
@@ -5668,8 +5675,8 @@
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A9" s="35"/>
-      <c r="B9" s="36" t="s">
+      <c r="A9" s="36"/>
+      <c r="B9" s="35" t="s">
         <v>43</v>
       </c>
       <c r="C9" s="2">
@@ -5818,7 +5825,7 @@
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A10" s="35"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="1" t="s">
         <v>44</v>
       </c>
@@ -5968,7 +5975,7 @@
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A11" s="35"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="1" t="s">
         <v>45</v>
       </c>
@@ -6118,7 +6125,7 @@
       </c>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A12" s="35"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="1" t="s">
         <v>46</v>
       </c>
@@ -6268,7 +6275,7 @@
       </c>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A13" s="35"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="1" t="s">
         <v>47</v>
       </c>
@@ -6418,7 +6425,7 @@
       </c>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A14" s="35"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="1" t="s">
         <v>48</v>
       </c>
@@ -6568,7 +6575,7 @@
       </c>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A15" s="35"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="1" t="s">
         <v>49</v>
       </c>
@@ -6718,7 +6725,7 @@
       </c>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A16" s="35"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="1" t="s">
         <v>50</v>
       </c>
@@ -6868,7 +6875,7 @@
       </c>
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A17" s="35"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="1" t="s">
         <v>51</v>
       </c>
@@ -7018,7 +7025,7 @@
       </c>
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A18" s="35"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="1" t="s">
         <v>52</v>
       </c>
@@ -7168,7 +7175,7 @@
       </c>
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A19" s="35"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="1" t="s">
         <v>53</v>
       </c>
@@ -7318,7 +7325,7 @@
       </c>
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="36" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -7470,7 +7477,7 @@
       </c>
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A21" s="35"/>
+      <c r="A21" s="36"/>
       <c r="B21" s="1" t="s">
         <v>55</v>
       </c>
@@ -7620,7 +7627,7 @@
       </c>
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A22" s="35"/>
+      <c r="A22" s="36"/>
       <c r="B22" s="1" t="s">
         <v>56</v>
       </c>
@@ -7770,7 +7777,7 @@
       </c>
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A23" s="35"/>
+      <c r="A23" s="36"/>
       <c r="B23" s="1" t="s">
         <v>57</v>
       </c>
@@ -7920,7 +7927,7 @@
       </c>
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A24" s="35"/>
+      <c r="A24" s="36"/>
       <c r="B24" s="1" t="s">
         <v>58</v>
       </c>
@@ -8070,7 +8077,7 @@
       </c>
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A25" s="35"/>
+      <c r="A25" s="36"/>
       <c r="B25" s="1" t="s">
         <v>59</v>
       </c>
@@ -8220,7 +8227,7 @@
       </c>
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A26" s="35"/>
+      <c r="A26" s="36"/>
       <c r="B26" s="1" t="s">
         <v>60</v>
       </c>
@@ -8370,7 +8377,7 @@
       </c>
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A27" s="35"/>
+      <c r="A27" s="36"/>
       <c r="B27" s="1" t="s">
         <v>61</v>
       </c>
@@ -8520,7 +8527,7 @@
       </c>
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A28" s="35"/>
+      <c r="A28" s="36"/>
       <c r="B28" s="1" t="s">
         <v>62</v>
       </c>
@@ -8670,7 +8677,7 @@
       </c>
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A29" s="35"/>
+      <c r="A29" s="36"/>
       <c r="B29" s="1" t="s">
         <v>63</v>
       </c>
@@ -8820,7 +8827,7 @@
       </c>
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A30" s="35"/>
+      <c r="A30" s="36"/>
       <c r="B30" s="1" t="s">
         <v>64</v>
       </c>
@@ -8970,7 +8977,7 @@
       </c>
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A31" s="35"/>
+      <c r="A31" s="36"/>
       <c r="B31" s="1" t="s">
         <v>65</v>
       </c>
@@ -9120,7 +9127,7 @@
       </c>
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A32" s="35"/>
+      <c r="A32" s="36"/>
       <c r="B32" s="1" t="s">
         <v>66</v>
       </c>
@@ -9270,7 +9277,7 @@
       </c>
     </row>
     <row r="33" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A33" s="35"/>
+      <c r="A33" s="36"/>
       <c r="B33" s="1" t="s">
         <v>67</v>
       </c>
@@ -9420,7 +9427,7 @@
       </c>
     </row>
     <row r="34" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A34" s="35"/>
+      <c r="A34" s="36"/>
       <c r="B34" s="1" t="s">
         <v>68</v>
       </c>
@@ -9570,7 +9577,7 @@
       </c>
     </row>
     <row r="35" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A35" s="35"/>
+      <c r="A35" s="36"/>
       <c r="B35" s="1" t="s">
         <v>69</v>
       </c>
@@ -9720,7 +9727,7 @@
       </c>
     </row>
     <row r="36" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A36" s="35"/>
+      <c r="A36" s="36"/>
       <c r="B36" s="1" t="s">
         <v>70</v>
       </c>
@@ -9870,7 +9877,7 @@
       </c>
     </row>
     <row r="37" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A37" s="35" t="s">
+      <c r="A37" s="36" t="s">
         <v>27</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -10022,7 +10029,7 @@
       </c>
     </row>
     <row r="38" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A38" s="35"/>
+      <c r="A38" s="36"/>
       <c r="B38" s="1" t="s">
         <v>72</v>
       </c>
@@ -10172,8 +10179,8 @@
       </c>
     </row>
     <row r="39" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A39" s="35"/>
-      <c r="B39" s="36" t="s">
+      <c r="A39" s="36"/>
+      <c r="B39" s="35" t="s">
         <v>73</v>
       </c>
       <c r="C39" s="2">
@@ -10322,8 +10329,8 @@
       </c>
     </row>
     <row r="40" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A40" s="35"/>
-      <c r="B40" s="36" t="s">
+      <c r="A40" s="36"/>
+      <c r="B40" s="35" t="s">
         <v>74</v>
       </c>
       <c r="C40" s="2">
@@ -10472,7 +10479,7 @@
       </c>
     </row>
     <row r="41" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A41" s="35"/>
+      <c r="A41" s="36"/>
       <c r="B41" s="1" t="s">
         <v>75</v>
       </c>
@@ -10621,8 +10628,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A42" s="35" t="s">
+    <row r="42" spans="1:50" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="36" t="s">
         <v>28</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -10773,8 +10780,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A43" s="35"/>
+    <row r="43" spans="1:50" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="36"/>
       <c r="B43" s="1" t="s">
         <v>77</v>
       </c>
@@ -10923,8 +10930,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A44" s="35"/>
+    <row r="44" spans="1:50" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="36"/>
       <c r="B44" s="1" t="s">
         <v>78</v>
       </c>
@@ -11073,8 +11080,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A45" s="35"/>
+    <row r="45" spans="1:50" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="36"/>
       <c r="B45" s="1" t="s">
         <v>79</v>
       </c>
@@ -11223,8 +11230,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A46" s="35"/>
+    <row r="46" spans="1:50" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="36"/>
       <c r="B46" s="1" t="s">
         <v>80</v>
       </c>
@@ -11373,8 +11380,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A47" s="35"/>
+    <row r="47" spans="1:50" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="36"/>
       <c r="B47" s="1" t="s">
         <v>81</v>
       </c>
@@ -11523,8 +11530,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A48" s="35"/>
+    <row r="48" spans="1:50" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="36"/>
       <c r="B48" s="1" t="s">
         <v>82</v>
       </c>
@@ -11673,8 +11680,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A49" s="35"/>
+    <row r="49" spans="1:50" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="36"/>
       <c r="B49" s="1" t="s">
         <v>83</v>
       </c>
@@ -11823,8 +11830,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A50" s="35"/>
+    <row r="50" spans="1:50" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="36"/>
       <c r="B50" s="1" t="s">
         <v>84</v>
       </c>
@@ -11973,8 +11980,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A51" s="35"/>
+    <row r="51" spans="1:50" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="36"/>
       <c r="B51" s="1" t="s">
         <v>85</v>
       </c>
@@ -12123,8 +12130,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A52" s="35"/>
+    <row r="52" spans="1:50" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="36"/>
       <c r="B52" s="1" t="s">
         <v>86</v>
       </c>
@@ -12273,8 +12280,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A53" s="35"/>
+    <row r="53" spans="1:50" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="36"/>
       <c r="B53" s="1" t="s">
         <v>87</v>
       </c>
@@ -12423,8 +12430,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A54" s="35"/>
+    <row r="54" spans="1:50" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="36"/>
       <c r="B54" s="1" t="s">
         <v>88</v>
       </c>
@@ -12573,8 +12580,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A55" s="35"/>
+    <row r="55" spans="1:50" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="36"/>
       <c r="B55" s="1" t="s">
         <v>89</v>
       </c>
@@ -12723,8 +12730,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A56" s="35"/>
+    <row r="56" spans="1:50" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="36"/>
       <c r="B56" s="1" t="s">
         <v>90</v>
       </c>
@@ -12873,8 +12880,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A57" s="35"/>
+    <row r="57" spans="1:50" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="36"/>
       <c r="B57" s="1" t="s">
         <v>91</v>
       </c>
@@ -13023,8 +13030,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A58" s="35"/>
+    <row r="58" spans="1:50" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="36"/>
       <c r="B58" s="1" t="s">
         <v>92</v>
       </c>
@@ -13173,8 +13180,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A59" s="35"/>
+    <row r="59" spans="1:50" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="36"/>
       <c r="B59" s="1" t="s">
         <v>93</v>
       </c>
@@ -13323,8 +13330,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A60" s="35"/>
+    <row r="60" spans="1:50" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="36"/>
       <c r="B60" s="1" t="s">
         <v>94</v>
       </c>
@@ -13473,8 +13480,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A61" s="35"/>
+    <row r="61" spans="1:50" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="36"/>
       <c r="B61" s="1" t="s">
         <v>95</v>
       </c>
@@ -13623,8 +13630,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A62" s="35"/>
+    <row r="62" spans="1:50" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="36"/>
       <c r="B62" s="1" t="s">
         <v>96</v>
       </c>
@@ -13773,8 +13780,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A63" s="35"/>
+    <row r="63" spans="1:50" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="36"/>
       <c r="B63" s="1" t="s">
         <v>97</v>
       </c>
@@ -13924,7 +13931,7 @@
       </c>
     </row>
     <row r="64" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A64" s="35" t="s">
+      <c r="A64" s="36" t="s">
         <v>29</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -14076,7 +14083,7 @@
       </c>
     </row>
     <row r="65" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A65" s="35"/>
+      <c r="A65" s="36"/>
       <c r="B65" s="1" t="s">
         <v>99</v>
       </c>
@@ -14226,7 +14233,7 @@
       </c>
     </row>
     <row r="66" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A66" s="35"/>
+      <c r="A66" s="36"/>
       <c r="B66" s="1" t="s">
         <v>100</v>
       </c>
@@ -14376,7 +14383,7 @@
       </c>
     </row>
     <row r="67" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A67" s="35"/>
+      <c r="A67" s="36"/>
       <c r="B67" s="1" t="s">
         <v>101</v>
       </c>
@@ -14526,7 +14533,7 @@
       </c>
     </row>
     <row r="68" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A68" s="35"/>
+      <c r="A68" s="36"/>
       <c r="B68" s="1" t="s">
         <v>102</v>
       </c>
@@ -14676,7 +14683,7 @@
       </c>
     </row>
     <row r="69" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A69" s="35"/>
+      <c r="A69" s="36"/>
       <c r="B69" s="1" t="s">
         <v>103</v>
       </c>
@@ -14826,7 +14833,7 @@
       </c>
     </row>
     <row r="70" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A70" s="35"/>
+      <c r="A70" s="36"/>
       <c r="B70" s="1" t="s">
         <v>104</v>
       </c>
@@ -14975,8 +14982,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A71" s="35" t="s">
+    <row r="71" spans="1:50" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="36" t="s">
         <v>30</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -15127,8 +15134,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A72" s="35"/>
+    <row r="72" spans="1:50" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="36"/>
       <c r="B72" s="1" t="s">
         <v>106</v>
       </c>
@@ -15277,8 +15284,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A73" s="35"/>
+    <row r="73" spans="1:50" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="36"/>
       <c r="B73" s="1" t="s">
         <v>107</v>
       </c>
@@ -15427,8 +15434,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A74" s="35"/>
+    <row r="74" spans="1:50" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="36"/>
       <c r="B74" s="1" t="s">
         <v>108</v>
       </c>
@@ -15577,8 +15584,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A75" s="35"/>
+    <row r="75" spans="1:50" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="36"/>
       <c r="B75" s="1" t="s">
         <v>109</v>
       </c>
@@ -15727,8 +15734,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A76" s="35"/>
+    <row r="76" spans="1:50" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="36"/>
       <c r="B76" s="1" t="s">
         <v>110</v>
       </c>
@@ -15877,8 +15884,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A77" s="35"/>
+    <row r="77" spans="1:50" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="36"/>
       <c r="B77" s="1" t="s">
         <v>111</v>
       </c>
@@ -16027,8 +16034,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A78" s="35"/>
+    <row r="78" spans="1:50" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="36"/>
       <c r="B78" s="1" t="s">
         <v>112</v>
       </c>
@@ -16177,8 +16184,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A79" s="35"/>
+    <row r="79" spans="1:50" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="36"/>
       <c r="B79" s="1" t="s">
         <v>113</v>
       </c>
@@ -16327,8 +16334,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A80" s="35"/>
+    <row r="80" spans="1:50" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="36"/>
       <c r="B80" s="1" t="s">
         <v>114</v>
       </c>
@@ -16477,8 +16484,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A81" s="35"/>
+    <row r="81" spans="1:50" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="36"/>
       <c r="B81" s="1" t="s">
         <v>115</v>
       </c>
@@ -16628,7 +16635,7 @@
       </c>
     </row>
     <row r="82" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A82" s="35" t="s">
+      <c r="A82" s="36" t="s">
         <v>31</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -16780,7 +16787,7 @@
       </c>
     </row>
     <row r="83" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A83" s="35"/>
+      <c r="A83" s="36"/>
       <c r="B83" s="1" t="s">
         <v>117</v>
       </c>
@@ -16930,7 +16937,7 @@
       </c>
     </row>
     <row r="84" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A84" s="35"/>
+      <c r="A84" s="36"/>
       <c r="B84" s="1" t="s">
         <v>118</v>
       </c>
@@ -17080,7 +17087,7 @@
       </c>
     </row>
     <row r="85" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A85" s="35"/>
+      <c r="A85" s="36"/>
       <c r="B85" s="1" t="s">
         <v>119</v>
       </c>
@@ -17230,7 +17237,7 @@
       </c>
     </row>
     <row r="86" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A86" s="35"/>
+      <c r="A86" s="36"/>
       <c r="B86" s="1" t="s">
         <v>120</v>
       </c>
@@ -17380,7 +17387,7 @@
       </c>
     </row>
     <row r="87" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A87" s="35"/>
+      <c r="A87" s="36"/>
       <c r="B87" s="1" t="s">
         <v>121</v>
       </c>
@@ -17530,7 +17537,7 @@
       </c>
     </row>
     <row r="88" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A88" s="35"/>
+      <c r="A88" s="36"/>
       <c r="B88" s="1" t="s">
         <v>122</v>
       </c>
@@ -17680,7 +17687,7 @@
       </c>
     </row>
     <row r="89" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A89" s="35"/>
+      <c r="A89" s="36"/>
       <c r="B89" s="1" t="s">
         <v>123</v>
       </c>
@@ -17830,7 +17837,7 @@
       </c>
     </row>
     <row r="90" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A90" s="35"/>
+      <c r="A90" s="36"/>
       <c r="B90" s="1" t="s">
         <v>124</v>
       </c>
@@ -17980,7 +17987,7 @@
       </c>
     </row>
     <row r="91" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A91" s="35"/>
+      <c r="A91" s="36"/>
       <c r="B91" s="1" t="s">
         <v>125</v>
       </c>
@@ -18130,7 +18137,7 @@
       </c>
     </row>
     <row r="92" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A92" s="35"/>
+      <c r="A92" s="36"/>
       <c r="B92" s="1" t="s">
         <v>126</v>
       </c>
@@ -18279,8 +18286,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A93" s="35" t="s">
+    <row r="93" spans="1:50" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="36" t="s">
         <v>32</v>
       </c>
       <c r="B93" s="1" t="s">
@@ -18431,8 +18438,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A94" s="35"/>
+    <row r="94" spans="1:50" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="36"/>
       <c r="B94" s="1" t="s">
         <v>128</v>
       </c>
@@ -18581,8 +18588,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A95" s="35"/>
+    <row r="95" spans="1:50" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="36"/>
       <c r="B95" s="1" t="s">
         <v>129</v>
       </c>
@@ -18731,8 +18738,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A96" s="35"/>
+    <row r="96" spans="1:50" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="36"/>
       <c r="B96" s="1" t="s">
         <v>130</v>
       </c>
@@ -18881,8 +18888,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A97" s="35"/>
+    <row r="97" spans="1:50" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="36"/>
       <c r="B97" s="1" t="s">
         <v>131</v>
       </c>
@@ -19031,8 +19038,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A98" s="35"/>
+    <row r="98" spans="1:50" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="36"/>
       <c r="B98" s="1" t="s">
         <v>132</v>
       </c>
@@ -19181,8 +19188,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A99" s="35"/>
+    <row r="99" spans="1:50" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="36"/>
       <c r="B99" s="1" t="s">
         <v>133</v>
       </c>
@@ -19331,8 +19338,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A100" s="35"/>
+    <row r="100" spans="1:50" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="36"/>
       <c r="B100" s="1" t="s">
         <v>134</v>
       </c>
@@ -19481,8 +19488,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A101" s="35"/>
+    <row r="101" spans="1:50" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="36"/>
       <c r="B101" s="1" t="s">
         <v>135</v>
       </c>
@@ -19631,8 +19638,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A102" s="35"/>
+    <row r="102" spans="1:50" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="36"/>
       <c r="B102" s="1" t="s">
         <v>136</v>
       </c>
@@ -19781,8 +19788,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A103" s="35"/>
+    <row r="103" spans="1:50" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="36"/>
       <c r="B103" s="1" t="s">
         <v>137</v>
       </c>
@@ -19931,8 +19938,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A104" s="35"/>
+    <row r="104" spans="1:50" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="36"/>
       <c r="B104" s="1" t="s">
         <v>138</v>
       </c>
@@ -20081,8 +20088,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A105" s="35"/>
+    <row r="105" spans="1:50" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="36"/>
       <c r="B105" s="1" t="s">
         <v>139</v>
       </c>
@@ -20233,17 +20240,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C1:Z1"/>
+    <mergeCell ref="AA1:AX1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A19"/>
+    <mergeCell ref="A20:A36"/>
     <mergeCell ref="A93:A105"/>
     <mergeCell ref="A37:A41"/>
     <mergeCell ref="A42:A63"/>
     <mergeCell ref="A64:A70"/>
     <mergeCell ref="A71:A81"/>
     <mergeCell ref="A82:A92"/>
-    <mergeCell ref="C1:Z1"/>
-    <mergeCell ref="AA1:AX1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A19"/>
-    <mergeCell ref="A20:A36"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
